--- a/companies.xlsx
+++ b/companies.xlsx
@@ -3067,3043 +3067,3043 @@
     <t>name</t>
   </si>
   <si>
-    <t>{"label" : "name", "value" :  code}</t>
-  </si>
-  <si>
-    <t>{"label" : "3M", "value" :  1}</t>
-  </si>
-  <si>
-    <t>{"label" : "A.O. Smith", "value" :  2}</t>
-  </si>
-  <si>
-    <t>{"label" : "A.W.Rostamani Holdings Co (L.L.C)", "value" :  3}</t>
-  </si>
-  <si>
-    <t>{"label" : "AAR Corp", "value" :  4}</t>
-  </si>
-  <si>
-    <t>{"label" : "ABB", "value" :  5}</t>
-  </si>
-  <si>
-    <t>{"label" : "Abdul Latif Jameel Co.", "value" :  6}</t>
-  </si>
-  <si>
-    <t>{"label" : "Abengoa", "value" :  7}</t>
-  </si>
-  <si>
-    <t>{"label" : "Accuride", "value" :  8}</t>
-  </si>
-  <si>
-    <t>{"label" : "ACS Group", "value" :  9}</t>
-  </si>
-  <si>
-    <t>{"label" : "Actuant Corp", "value" :  10}</t>
-  </si>
-  <si>
-    <t>{"label" : "Acuity Brands", "value" :  11}</t>
-  </si>
-  <si>
-    <t>{"label" : "Aditya Birla", "value" :  12}</t>
-  </si>
-  <si>
-    <t>{"label" : "ADS, Inc.", "value" :  13}</t>
-  </si>
-  <si>
-    <t>{"label" : "Advance Auto Parts", "value" :  14}</t>
-  </si>
-  <si>
-    <t>{"label" : "Advanced Micro", "value" :  15}</t>
-  </si>
-  <si>
-    <t>{"label" : "Advanced Semiconductor Engineering", "value" :  16}</t>
-  </si>
-  <si>
-    <t>{"label" : "AEC - Advanced Electronics Company", "value" :  17}</t>
-  </si>
-  <si>
-    <t>{"label" : "ÅF AB", "value" :  18}</t>
-  </si>
-  <si>
-    <t>{"label" : "Affinia Group", "value" :  19}</t>
-  </si>
-  <si>
-    <t>{"label" : "AGCO", "value" :  20}</t>
-  </si>
-  <si>
-    <t>{"label" : "Agilent Technologies", "value" :  21}</t>
-  </si>
-  <si>
-    <t>{"label" : "Agrale", "value" :  22}</t>
-  </si>
-  <si>
-    <t>{"label" : "Air Works India (Engineering) Private Limited", "value" :  23}</t>
-  </si>
-  <si>
-    <t>{"label" : "Airbus Group", "value" :  24}</t>
-  </si>
-  <si>
-    <t>{"label" : "Aisin Seiki", "value" :  25}</t>
-  </si>
-  <si>
-    <t>{"label" : "Aixtron", "value" :  26}</t>
-  </si>
-  <si>
-    <t>{"label" : "Akebono Brake Industry", "value" :  27}</t>
-  </si>
-  <si>
-    <t>{"label" : "Alaa Industrial Equipment Factory", "value" :  28}</t>
-  </si>
-  <si>
-    <t>{"label" : "Alcoa", "value" :  29}</t>
-  </si>
-  <si>
-    <t>{"label" : "Alfa Laval", "value" :  30}</t>
-  </si>
-  <si>
-    <t>{"label" : "Alfred Kärcher GmbH and Co. KG", "value" :  31}</t>
-  </si>
-  <si>
-    <t>{"label" : "Algeria. Ministry of Defense", "value" :  32}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ali Group", "value" :  33}</t>
-  </si>
-  <si>
-    <t>{"label" : "Allied Electronics Corporation Ltd (Altron)", "value" :  34}</t>
-  </si>
-  <si>
-    <t>{"label" : "Allison Transmission Holdings", "value" :  35}</t>
-  </si>
-  <si>
-    <t>{"label" : "Allseas", "value" :  36}</t>
-  </si>
-  <si>
-    <t>{"label" : "Almaz-Antey", "value" :  37}</t>
-  </si>
-  <si>
-    <t>{"label" : "Alps Electric", "value" :  38}</t>
-  </si>
-  <si>
-    <t>{"label" : "Alstom", "value" :  39}</t>
-  </si>
-  <si>
-    <t>{"label" : "Altera", "value" :  40}</t>
-  </si>
-  <si>
-    <t>{"label" : "Altor Equity Partners", "value" :  41}</t>
-  </si>
-  <si>
-    <t>{"label" : "American Axle &amp; Manufacturing", "value" :  42}</t>
-  </si>
-  <si>
-    <t>{"label" : "American Securities Capital Partners", "value" :  43}</t>
-  </si>
-  <si>
-    <t>{"label" : "American Tire Distributors", "value" :  44}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ametek", "value" :  45}</t>
-  </si>
-  <si>
-    <t>{"label" : "Amkor Technology, Inc.", "value" :  46}</t>
-  </si>
-  <si>
-    <t>{"label" : "Amphenol", "value" :  47}</t>
-  </si>
-  <si>
-    <t>{"label" : "Amtek", "value" :  48}</t>
-  </si>
-  <si>
-    <t>{"label" : "Analog Devices", "value" :  49}</t>
-  </si>
-  <si>
-    <t>{"label" : "Andritz", "value" :  50}</t>
-  </si>
-  <si>
-    <t>{"label" : "Anixter International", "value" :  51}</t>
-  </si>
-  <si>
-    <t>{"label" : "APAX Partners", "value" :  52}</t>
-  </si>
-  <si>
-    <t>{"label" : "Applied Materials", "value" :  53}</t>
-  </si>
-  <si>
-    <t>{"label" : "Arctic Cat Inc", "value" :  54}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ares Management", "value" :  55}</t>
-  </si>
-  <si>
-    <t>{"label" : "Areva", "value" :  56}</t>
-  </si>
-  <si>
-    <t>{"label" : "Argentina. Ministry of Defense", "value" :  57}</t>
-  </si>
-  <si>
-    <t>{"label" : "Arianespace", "value" :  58}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ariens Company", "value" :  59}</t>
-  </si>
-  <si>
-    <t>{"label" : "Arlington Capital Group LLC", "value" :  60}</t>
-  </si>
-  <si>
-    <t>{"label" : "ARM Holdings", "value" :  61}</t>
-  </si>
-  <si>
-    <t>{"label" : "Arrow Electronics", "value" :  62}</t>
-  </si>
-  <si>
-    <t>{"label" : "Asahi Glass", "value" :  63}</t>
-  </si>
-  <si>
-    <t>{"label" : "ASIMCO", "value" :  64}</t>
-  </si>
-  <si>
-    <t>{"label" : "ASML Holding", "value" :  65}</t>
-  </si>
-  <si>
-    <t>{"label" : "Assa Abloy", "value" :  66}</t>
-  </si>
-  <si>
-    <t>{"label" : "Astra International", "value" :  67}</t>
-  </si>
-  <si>
-    <t>{"label" : "Atlas Copco", "value" :  68}</t>
-  </si>
-  <si>
-    <t>{"label" : "Atmel", "value" :  69}</t>
-  </si>
-  <si>
-    <t>{"label" : "ATMI", "value" :  70}</t>
-  </si>
-  <si>
-    <t>{"label" : "AU Optronics", "value" :  71}</t>
-  </si>
-  <si>
-    <t>{"label" : "Aurora Capital Group", "value" :  72}</t>
-  </si>
-  <si>
-    <t>{"label" : "Australia. Department of Defence", "value" :  73}</t>
-  </si>
-  <si>
-    <t>{"label" : "Autoliv", "value" :  74}</t>
-  </si>
-  <si>
-    <t>{"label" : "Automotive Holding Group Limited", "value" :  75}</t>
-  </si>
-  <si>
-    <t>{"label" : "AutoNation", "value" :  76}</t>
-  </si>
-  <si>
-    <t>{"label" : "Autoneum Holding AG", "value" :  77}</t>
-  </si>
-  <si>
-    <t>{"label" : "AUX Group", "value" :  78}</t>
-  </si>
-  <si>
-    <t>{"label" : "Avago Technologies", "value" :  79}</t>
-  </si>
-  <si>
-    <t>{"label" : "AVIC (Aviation Industries of China)", "value" :  80}</t>
-  </si>
-  <si>
-    <t>{"label" : "Avnet", "value" :  81}</t>
-  </si>
-  <si>
-    <t>{"label" : "Avtotor-Kholding Grupp OAO", "value" :  82}</t>
-  </si>
-  <si>
-    <t>{"label" : "AWE Management Limited", "value" :  83}</t>
-  </si>
-  <si>
-    <t>{"label" : "AXA Group", "value" :  84}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ayala Corporation", "value" :  85}</t>
-  </si>
-  <si>
-    <t>{"label" : "Azimut Benetti Group", "value" :  86}</t>
-  </si>
-  <si>
-    <t>{"label" : "B&amp;C Privatstiftung", "value" :  87}</t>
-  </si>
-  <si>
-    <t>{"label" : "Babcock International Group plc", "value" :  88}</t>
-  </si>
-  <si>
-    <t>{"label" : "BAe Systems", "value" :  89}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bain Capital", "value" :  90}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bain Consort./Bombardier Recreational Products", "value" :  91}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ball", "value" :  92}</t>
-  </si>
-  <si>
-    <t>{"label" : "Baoxin Group", "value" :  93}</t>
-  </si>
-  <si>
-    <t>{"label" : "Barnes Group", "value" :  94}</t>
-  </si>
-  <si>
-    <t>{"label" : "Barry-Wehmiller Companies", "value" :  95}</t>
-  </si>
-  <si>
-    <t>{"label" : "BASF", "value" :  96}</t>
-  </si>
-  <si>
-    <t>{"label" : "Battelle Memorial Institute", "value" :  97}</t>
-  </si>
-  <si>
-    <t>{"label" : "Battistella", "value" :  98}</t>
-  </si>
-  <si>
-    <t>{"label" : "BBA Aviation plc", "value" :  99}</t>
-  </si>
-  <si>
-    <t>{"label" : "BE Aerospace", "value" :  100}</t>
-  </si>
-  <si>
-    <t>{"label" : "Becton, Dickinson", "value" :  101}</t>
-  </si>
-  <si>
-    <t>{"label" : "Beechcraft (fka Hawker-Beechcraft)", "value" :  102}</t>
-  </si>
-  <si>
-    <t>{"label" : "Beijing Jingcheng Machinery Electric Holding Co. Ltd", "value" :  103}</t>
-  </si>
-  <si>
-    <t>{"label" : "BeijingAutomotive Industry HoldingCo., Ltd.", "value" :  104}</t>
-  </si>
-  <si>
-    <t>{"label" : "Beiqi Foton", "value" :  105}</t>
-  </si>
-  <si>
-    <t>{"label" : "Belden, Inc.", "value" :  106}</t>
-  </si>
-  <si>
-    <t>{"label" : "Belgium. Flemish Regional Government", "value" :  107}</t>
-  </si>
-  <si>
-    <t>{"label" : "Belgium. Ministry of Defense", "value" :  108}</t>
-  </si>
-  <si>
-    <t>{"label" : "Benchmark Electronics", "value" :  109}</t>
-  </si>
-  <si>
-    <t>{"label" : "Benteler AG", "value" :  110}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bharat Electronics Limited", "value" :  111}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bharat Heavy Electricals", "value" :  112}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bilfinger &amp; Berger", "value" :  113}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bio-Rad Lab", "value" :  114}</t>
-  </si>
-  <si>
-    <t>{"label" : "Blackstone", "value" :  115}</t>
-  </si>
-  <si>
-    <t>{"label" : "BMW Group", "value" :  116}</t>
-  </si>
-  <si>
-    <t>{"label" : "Boeing", "value" :  117}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bombardier", "value" :  118}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bonfiglioli", "value" :  119}</t>
-  </si>
-  <si>
-    <t>{"label" : "Borgers AG", "value" :  120}</t>
-  </si>
-  <si>
-    <t>{"label" : "BorgWarner", "value" :  121}</t>
-  </si>
-  <si>
-    <t>{"label" : "Borusan Holding", "value" :  122}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bosch Siemens Hausgeräte", "value" :  123}</t>
-  </si>
-  <si>
-    <t>{"label" : "Boston Scientific", "value" :  124}</t>
-  </si>
-  <si>
-    <t>{"label" : "Brady Corporation", "value" :  125}</t>
-  </si>
-  <si>
-    <t>{"label" : "Brazil Trading Ltda.", "value" :  126}</t>
-  </si>
-  <si>
-    <t>{"label" : "Brazil. Ministry of Defense", "value" :  127}</t>
-  </si>
-  <si>
-    <t>{"label" : "Brembo", "value" :  128}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bridgepoint", "value" :  129}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bridgestone", "value" :  130}</t>
-  </si>
-  <si>
-    <t>{"label" : "Briggs &amp; Stratton", "value" :  131}</t>
-  </si>
-  <si>
-    <t>{"label" : "Brightpoint, Inc.", "value" :  132}</t>
-  </si>
-  <si>
-    <t>{"label" : "Brilliance China Automotive Holdings", "value" :  133}</t>
-  </si>
-  <si>
-    <t>{"label" : "Brink"s", "value" :  134}</t>
-  </si>
-  <si>
-    <t>{"label" : "Broadcom", "value" :  135}</t>
-  </si>
-  <si>
-    <t>{"label" : "Brose Fahrzeugteile", "value" :  136}</t>
-  </si>
-  <si>
-    <t>{"label" : "Brother Industries", "value" :  137}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bruker Corporation", "value" :  138}</t>
-  </si>
-  <si>
-    <t>{"label" : "Brunswick", "value" :  139}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bucher Industries", "value" :  140}</t>
-  </si>
-  <si>
-    <t>{"label" : "Bühler Holding AG", "value" :  141}</t>
-  </si>
-  <si>
-    <t>{"label" : "Business Leaders for Michigan", "value" :  142}</t>
-  </si>
-  <si>
-    <t>{"label" : "BYD", "value" :  143}</t>
-  </si>
-  <si>
-    <t>{"label" : "CACI International", "value" :  144}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cadence", "value" :  145}</t>
-  </si>
-  <si>
-    <t>{"label" : "CAE", "value" :  146}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cal-Comp Electronics (Thailand) Public", "value" :  147}</t>
-  </si>
-  <si>
-    <t>{"label" : "California High Speed Rail", "value" :  148}</t>
-  </si>
-  <si>
-    <t>{"label" : "Calsonic Kansei", "value" :  149}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cameron International", "value" :  150}</t>
-  </si>
-  <si>
-    <t>{"label" : "Camfil Ab", "value" :  151}</t>
-  </si>
-  <si>
-    <t>{"label" : "Camoplast Solideal Inc", "value" :  152}</t>
-  </si>
-  <si>
-    <t>{"label" : "Canada Pension Plan", "value" :  153}</t>
-  </si>
-  <si>
-    <t>{"label" : "Canada. Department of Defence", "value" :  154}</t>
-  </si>
-  <si>
-    <t>{"label" : "Canon", "value" :  155}</t>
-  </si>
-  <si>
-    <t>{"label" : "Caoa Montadora De Veículos S/A.", "value" :  156}</t>
-  </si>
-  <si>
-    <t>{"label" : "CapVis Equity Partners", "value" :  157}</t>
-  </si>
-  <si>
-    <t>{"label" : "Carl Zeiss", "value" :  158}</t>
-  </si>
-  <si>
-    <t>{"label" : "Carlisle Companies", "value" :  159}</t>
-  </si>
-  <si>
-    <t>{"label" : "CarMax", "value" :  160}</t>
-  </si>
-  <si>
-    <t>{"label" : "Carraro Group", "value" :  161}</t>
-  </si>
-  <si>
-    <t>{"label" : "Caterpillar", "value" :  162}</t>
-  </si>
-  <si>
-    <t>{"label" : "CCRE Group", "value" :  163}</t>
-  </si>
-  <si>
-    <t>{"label" : "Celestica, Inc.", "value" :  164}</t>
-  </si>
-  <si>
-    <t>{"label" : "Center for the Advancement of Science in Space", "value" :  165}</t>
-  </si>
-  <si>
-    <t>{"label" : "Centrotherm Photovoltaics AG", "value" :  166}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cerberus Capital Management LP", "value" :  167}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cerberus/Dyncorp International", "value" :  168}</t>
-  </si>
-  <si>
-    <t>{"label" : "Chang An", "value" :  169}</t>
-  </si>
-  <si>
-    <t>{"label" : "Charlesbank Capital Partners Llc", "value" :  170}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cheng Shin Rubber Industries", "value" :  171}</t>
-  </si>
-  <si>
-    <t>{"label" : "Chery Automobile", "value" :  172}</t>
-  </si>
-  <si>
-    <t>{"label" : "China Aerospace Science and Industry Corporation", "value" :  173}</t>
-  </si>
-  <si>
-    <t>{"label" : "China CNR", "value" :  174}</t>
-  </si>
-  <si>
-    <t>{"label" : "China Coal Technology and Engineering Group Corp", "value" :  175}</t>
-  </si>
-  <si>
-    <t>{"label" : "China CSSC Holdings", "value" :  176}</t>
-  </si>
-  <si>
-    <t>{"label" : "China Electronics", "value" :  177}</t>
-  </si>
-  <si>
-    <t>{"label" : "China FAW Group", "value" :  178}</t>
-  </si>
-  <si>
-    <t>{"label" : "China Grand Auto", "value" :  179}</t>
-  </si>
-  <si>
-    <t>{"label" : "China Hi-Tech Group Corporation (CHTC)", "value" :  180}</t>
-  </si>
-  <si>
-    <t>{"label" : "China International Marine", "value" :  181}</t>
-  </si>
-  <si>
-    <t>{"label" : "China National Materials", "value" :  182}</t>
-  </si>
-  <si>
-    <t>{"label" : "China New Century Holding Group", "value" :  183}</t>
-  </si>
-  <si>
-    <t>{"label" : "China North Industries", "value" :  184}</t>
-  </si>
-  <si>
-    <t>{"label" : "China South Industries", "value" :  185}</t>
-  </si>
-  <si>
-    <t>{"label" : "China Zhengtong Auto Services Holdings", "value" :  186}</t>
-  </si>
-  <si>
-    <t>{"label" : "China Hengtian GroupCo. Ltd", "value" :  187}</t>
-  </si>
-  <si>
-    <t>{"label" : "China. Peoples Republic of", "value" :  188}</t>
-  </si>
-  <si>
-    <t>{"label" : "Chint Group Co. Ltd", "value" :  189}</t>
-  </si>
-  <si>
-    <t>{"label" : "Chongqing Skyman", "value" :  190}</t>
-  </si>
-  <si>
-    <t>{"label" : "Chun Feng Group", "value" :  191}</t>
-  </si>
-  <si>
-    <t>{"label" : "CIE Automotive SA", "value" :  192}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cinven", "value" :  193}</t>
-  </si>
-  <si>
-    <t>{"label" : "Citizen Watch", "value" :  194}</t>
-  </si>
-  <si>
-    <t>{"label" : "CK Birla Group", "value" :  195}</t>
-  </si>
-  <si>
-    <t>{"label" : "CLAAS KGaA mbH", "value" :  196}</t>
-  </si>
-  <si>
-    <t>{"label" : "Clarcor", "value" :  197}</t>
-  </si>
-  <si>
-    <t>{"label" : "CNH Industrial", "value" :  198}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cobham", "value" :  199}</t>
-  </si>
-  <si>
-    <t>{"label" : "Coesia", "value" :  200}</t>
-  </si>
-  <si>
-    <t>{"label" : "Colfax Corporation", "value" :  201}</t>
-  </si>
-  <si>
-    <t>{"label" : "Colombia. Defense", "value" :  202}</t>
-  </si>
-  <si>
-    <t>{"label" : "Colony Capital", "value" :  203}</t>
-  </si>
-  <si>
-    <t>{"label" : "Commercial Vehicle Group Inc. (CVG)", "value" :  204}</t>
-  </si>
-  <si>
-    <t>{"label" : "Comoli-Bianchi Group", "value" :  205}</t>
-  </si>
-  <si>
-    <t>{"label" : "Compagnie Plastic Omnium SA", "value" :  206}</t>
-  </si>
-  <si>
-    <t>{"label" : "Compal Electronics", "value" :  207}</t>
-  </si>
-  <si>
-    <t>{"label" : "Conexant Systems", "value" :  208}</t>
-  </si>
-  <si>
-    <t>{"label" : "Consórcio Estaleiro Paraguaçú", "value" :  209}</t>
-  </si>
-  <si>
-    <t>{"label" : "Construcciones y Auxiliar de Ferrocarril (CAF)", "value" :  210}</t>
-  </si>
-  <si>
-    <t>{"label" : "Continental AG", "value" :  211}</t>
-  </si>
-  <si>
-    <t>{"label" : "Controladora Mabe, S.A. de C.V.", "value" :  212}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cooper Tire &amp; Rubber", "value" :  213}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cooper-Standard Automotive", "value" :  214}</t>
-  </si>
-  <si>
-    <t>{"label" : "Coretronic", "value" :  215}</t>
-  </si>
-  <si>
-    <t>{"label" : "Corning", "value" :  216}</t>
-  </si>
-  <si>
-    <t>{"label" : "Corporación Gestamp", "value" :  217}</t>
-  </si>
-  <si>
-    <t>{"label" : "COSCO", "value" :  218}</t>
-  </si>
-  <si>
-    <t>{"label" : "Crane Co", "value" :  219}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cree, Inc.", "value" :  220}</t>
-  </si>
-  <si>
-    <t>{"label" : "Crown Equipment", "value" :  221}</t>
-  </si>
-  <si>
-    <t>{"label" : "CSR Corporation Limited", "value" :  222}</t>
-  </si>
-  <si>
-    <t>{"label" : "CSR plc", "value" :  223}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cubic Corp", "value" :  224}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cummins", "value" :  225}</t>
-  </si>
-  <si>
-    <t>{"label" : "Curtiss-Wright Corporation", "value" :  226}</t>
-  </si>
-  <si>
-    <t>{"label" : "Cypress Semiconductor", "value" :  227}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dabbagh Group (incl. Stars Foundation)", "value" :  228}</t>
-  </si>
-  <si>
-    <t>{"label" : "Daewoo Ship &amp; Marine", "value" :  229}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dah Chong Hong", "value" :  230}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dai Nippon Printing", "value" :  231}</t>
-  </si>
-  <si>
-    <t>{"label" : "Daido Steel", "value" :  232}</t>
-  </si>
-  <si>
-    <t>{"label" : "Daikin Industries", "value" :  233}</t>
-  </si>
-  <si>
-    <t>{"label" : "Daimler", "value" :  234}</t>
-  </si>
-  <si>
-    <t>{"label" : "Daiwabo Holdings", "value" :  235}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dana", "value" :  236}</t>
-  </si>
-  <si>
-    <t>{"label" : "Danaher", "value" :  237}</t>
-  </si>
-  <si>
-    <t>{"label" : "Danfoss", "value" :  238}</t>
-  </si>
-  <si>
-    <t>{"label" : "Danieli and C. Officine Meccaniche S.p.A.", "value" :  239}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dassault Group", "value" :  240}</t>
-  </si>
-  <si>
-    <t>{"label" : "DCNS S.A.", "value" :  241}</t>
-  </si>
-  <si>
-    <t>{"label" : "De" Longhi S.p.A.", "value" :  242}</t>
-  </si>
-  <si>
-    <t>{"label" : "Deere &amp; Co", "value" :  243}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dekra", "value" :  244}</t>
-  </si>
-  <si>
-    <t>{"label" : "Delixi Group Co. Ltd", "value" :  245}</t>
-  </si>
-  <si>
-    <t>{"label" : "Delphi", "value" :  246}</t>
-  </si>
-  <si>
-    <t>{"label" : "Delta Electronics", "value" :  247}</t>
-  </si>
-  <si>
-    <t>{"label" : "Denmark. Ministry of Defense", "value" :  248}</t>
-  </si>
-  <si>
-    <t>{"label" : "Denso", "value" :  249}</t>
-  </si>
-  <si>
-    <t>{"label" : "Derco Sa", "value" :  250}</t>
-  </si>
-  <si>
-    <t>{"label" : "Deutz AG", "value" :  251}</t>
-  </si>
-  <si>
-    <t>{"label" : "Deutz/Fahr (SAME Deutz-Fahr)", "value" :  252}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dialog Semiconductor", "value" :  253}</t>
-  </si>
-  <si>
-    <t>{"label" : "Diebold", "value" :  254}</t>
-  </si>
-  <si>
-    <t>{"label" : "Diehl", "value" :  255}</t>
-  </si>
-  <si>
-    <t>{"label" : "DIeteren SA", "value" :  256}</t>
-  </si>
-  <si>
-    <t>{"label" : "DMG Mori Seiki", "value" :  257}</t>
-  </si>
-  <si>
-    <t>{"label" : "Docol", "value" :  258}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dogus Holding (incl. Dogus Media)", "value" :  259}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dometic", "value" :  260}</t>
-  </si>
-  <si>
-    <t>{"label" : "Donaldson Company, Inc.", "value" :  261}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dongfang Electric", "value" :  262}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dongfeng Motor Group", "value" :  263}</t>
-  </si>
-  <si>
-    <t>{"label" : "Doosan", "value" :  264}</t>
-  </si>
-  <si>
-    <t>{"label" : "Doosan Heavy Industry", "value" :  265}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dover", "value" :  266}</t>
-  </si>
-  <si>
-    <t>{"label" : "DPaschoal", "value" :  267}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dramd Participações E Administração Ltda", "value" :  268}</t>
-  </si>
-  <si>
-    <t>{"label" : "DRB / Syed Mokhtar", "value" :  269}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dream LuxCo/Securitas", "value" :  270}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dresser-Rand Group", "value" :  271}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dura Automotive Systems", "value" :  272}</t>
-  </si>
-  <si>
-    <t>{"label" : "Dürr Aktiengesellschaft", "value" :  273}</t>
-  </si>
-  <si>
-    <t>{"label" : "East Penn Manufacturing Company, Inc.", "value" :  274}</t>
-  </si>
-  <si>
-    <t>{"label" : "Eastman Kodak", "value" :  275}</t>
-  </si>
-  <si>
-    <t>{"label" : "Eaton", "value" :  276}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ebara", "value" :  277}</t>
-  </si>
-  <si>
-    <t>{"label" : "ebm-papst", "value" :  278}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ecolab (incl. Nalco)", "value" :  279}</t>
-  </si>
-  <si>
-    <t>{"label" : "El Sewedy Electric", "value" :  280}</t>
-  </si>
-  <si>
-    <t>{"label" : "Elbit", "value" :  281}</t>
-  </si>
-  <si>
-    <t>{"label" : "Electrical Components International, Inc.", "value" :  282}</t>
-  </si>
-  <si>
-    <t>{"label" : "Electrolux Group", "value" :  283}</t>
-  </si>
-  <si>
-    <t>{"label" : "Elliott Management Corporation", "value" :  284}</t>
-  </si>
-  <si>
-    <t>{"label" : "Elmos Semiconductor", "value" :  285}</t>
-  </si>
-  <si>
-    <t>{"label" : "Elpida Memory", "value" :  286}</t>
-  </si>
-  <si>
-    <t>{"label" : "Elringklinger", "value" :  287}</t>
-  </si>
-  <si>
-    <t>{"label" : "Embraer", "value" :  288}</t>
-  </si>
-  <si>
-    <t>{"label" : "Emcor", "value" :  289}</t>
-  </si>
-  <si>
-    <t>{"label" : "Emerson Electric", "value" :  290}</t>
-  </si>
-  <si>
-    <t>{"label" : "Emil Frey", "value" :  291}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ence", "value" :  292}</t>
-  </si>
-  <si>
-    <t>{"label" : "EnerSys, Inc.", "value" :  293}</t>
-  </si>
-  <si>
-    <t>{"label" : "Engility Holdings, Inc.", "value" :  294}</t>
-  </si>
-  <si>
-    <t>{"label" : "EnPro Industries", "value" :  295}</t>
-  </si>
-  <si>
-    <t>{"label" : "Entegris", "value" :  296}</t>
-  </si>
-  <si>
-    <t>{"label" : "Envision Energy (Jiangyin) Co. Ltd.", "value" :  297}</t>
-  </si>
-  <si>
-    <t>{"label" : "EPISTAR Corporation", "value" :  298}</t>
-  </si>
-  <si>
-    <t>{"label" : "Equifax", "value" :  299}</t>
-  </si>
-  <si>
-    <t>{"label" : "ESCO Technologies Inc.", "value" :  300}</t>
-  </si>
-  <si>
-    <t>{"label" : "Escorts Ltd.", "value" :  301}</t>
-  </si>
-  <si>
-    <t>{"label" : "Esterline Technologies Corp.", "value" :  302}</t>
-  </si>
-  <si>
-    <t>{"label" : "Eurofighter Jagdflugzeug Gmbh", "value" :  303}</t>
-  </si>
-  <si>
-    <t>{"label" : "EUROJET Turbo GmbH", "value" :  304}</t>
-  </si>
-  <si>
-    <t>{"label" : "Exelis", "value" :  305}</t>
-  </si>
-  <si>
-    <t>{"label" : "Exide", "value" :  306}</t>
-  </si>
-  <si>
-    <t>{"label" : "Exostar Llc", "value" :  307}</t>
-  </si>
-  <si>
-    <t>{"label" : "Fahrzeug-Werke LUEG AG", "value" :  308}</t>
-  </si>
-  <si>
-    <t>{"label" : "Fairchild Semiconductor International", "value" :  309}</t>
-  </si>
-  <si>
-    <t>{"label" : "Fanuc", "value" :  310}</t>
-  </si>
-  <si>
-    <t>{"label" : "Faurecia", "value" :  311}</t>
-  </si>
-  <si>
-    <t>{"label" : "FCC Co Ltd", "value" :  312}</t>
-  </si>
-  <si>
-    <t>{"label" : "Federal-Mogul", "value" :  313}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ferretti Group", "value" :  314}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ferreycorp Sociedad Anónima Abierta", "value" :  315}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ferrostaal GmbH", "value" :  316}</t>
-  </si>
-  <si>
-    <t>{"label" : "Festo Maschinenfabrik", "value" :  317}</t>
-  </si>
-  <si>
-    <t>{"label" : "Fiat Group (incl. Chrysler)", "value" :  318}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ficosa", "value" :  319}</t>
-  </si>
-  <si>
-    <t>{"label" : "Fincantieri", "value" :  320}</t>
-  </si>
-  <si>
-    <t>{"label" : "Finland. Ministry of Defense", "value" :  321}</t>
-  </si>
-  <si>
-    <t>{"label" : "Finmeccanica", "value" :  322}</t>
-  </si>
-  <si>
-    <t>{"label" : "Firestone Holdings LLC", "value" :  323}</t>
-  </si>
-  <si>
-    <t>{"label" : "First Solar, Inc.", "value" :  324}</t>
-  </si>
-  <si>
-    <t>{"label" : "FleetPride, Inc.", "value" :  325}</t>
-  </si>
-  <si>
-    <t>{"label" : "Flex-n-gate", "value" :  326}</t>
-  </si>
-  <si>
-    <t>{"label" : "Flextronics Intl", "value" :  327}</t>
-  </si>
-  <si>
-    <t>{"label" : "FLIR Systems", "value" :  328}</t>
-  </si>
-  <si>
-    <t>{"label" : "Flowserve", "value" :  329}</t>
-  </si>
-  <si>
-    <t>{"label" : "FLSmidth and Co. A/S", "value" :  330}</t>
-  </si>
-  <si>
-    <t>{"label" : "Fluor", "value" :  331}</t>
-  </si>
-  <si>
-    <t>{"label" : "FMC Technologies", "value" :  332}</t>
-  </si>
-  <si>
-    <t>{"label" : "Fokker Technologies Group B.V.", "value" :  333}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ford Motor", "value" :  334}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ford Sollers", "value" :  335}</t>
-  </si>
-  <si>
-    <t>{"label" : "Forjas Taurus S.A.", "value" :  336}</t>
-  </si>
-  <si>
-    <t>{"label" : "Foshan Midea Carrier", "value" :  337}</t>
-  </si>
-  <si>
-    <t>{"label" : "FountainVest", "value" :  338}</t>
-  </si>
-  <si>
-    <t>{"label" : "France. Defense", "value" :  339}</t>
-  </si>
-  <si>
-    <t>{"label" : "Franke Holding", "value" :  340}</t>
-  </si>
-  <si>
-    <t>{"label" : "Freescale Semiconductor", "value" :  341}</t>
-  </si>
-  <si>
-    <t>{"label" : "Fresenius", "value" :  342}</t>
-  </si>
-  <si>
-    <t>{"label" : "Freudenberg", "value" :  343}</t>
-  </si>
-  <si>
-    <t>{"label" : "Friedhelm Loh Stiftung and Co. KG", "value" :  344}</t>
-  </si>
-  <si>
-    <t>{"label" : "Friedrich Boysen Holding GmbH", "value" :  345}</t>
-  </si>
-  <si>
-    <t>{"label" : "Fuji Electric Holdings", "value" :  346}</t>
-  </si>
-  <si>
-    <t>{"label" : "Fuji Heavy Inds", "value" :  347}</t>
-  </si>
-  <si>
-    <t>{"label" : "Fujikura", "value" :  348}</t>
-  </si>
-  <si>
-    <t>{"label" : "Fujitsu", "value" :  349}</t>
-  </si>
-  <si>
-    <t>{"label" : "Funai Electric", "value" :  350}</t>
-  </si>
-  <si>
-    <t>{"label" : "Furukawa Electric", "value" :  351}</t>
-  </si>
-  <si>
-    <t>{"label" : "Futaba Industrial", "value" :  352}</t>
-  </si>
-  <si>
-    <t>{"label" : "Fuyo General Lease", "value" :  353}</t>
-  </si>
-  <si>
-    <t>{"label" : "Galanz Group", "value" :  354}</t>
-  </si>
-  <si>
-    <t>{"label" : "Gamesa", "value" :  355}</t>
-  </si>
-  <si>
-    <t>{"label" : "Gardner Denver", "value" :  356}</t>
-  </si>
-  <si>
-    <t>{"label" : "GAZ Group", "value" :  357}</t>
-  </si>
-  <si>
-    <t>{"label" : "GD Midea Holding", "value" :  358}</t>
-  </si>
-  <si>
-    <t>{"label" : "GEA Group", "value" :  359}</t>
-  </si>
-  <si>
-    <t>{"label" : "Geberit", "value" :  360}</t>
-  </si>
-  <si>
-    <t>{"label" : "Geely (incl. Volvo Car)", "value" :  361}</t>
-  </si>
-  <si>
-    <t>{"label" : "GenCorp", "value" :  362}</t>
-  </si>
-  <si>
-    <t>{"label" : "General Atomics", "value" :  363}</t>
-  </si>
-  <si>
-    <t>{"label" : "General Cable Corporation", "value" :  364}</t>
-  </si>
-  <si>
-    <t>{"label" : "General Dynamics", "value" :  365}</t>
-  </si>
-  <si>
-    <t>{"label" : "General Electric", "value" :  366}</t>
-  </si>
-  <si>
-    <t>{"label" : "General Motors", "value" :  367}</t>
-  </si>
-  <si>
-    <t>{"label" : "Genuine Parts", "value" :  368}</t>
-  </si>
-  <si>
-    <t>{"label" : "Georg Fischer", "value" :  369}</t>
-  </si>
-  <si>
-    <t>{"label" : "Germany. Ministry Of Defense", "value" :  370}</t>
-  </si>
-  <si>
-    <t>{"label" : "GETRAG Getriebe- und Zahnradfabrik Hermann Hagenmeyer GmbH and Cie KG", "value" :  371}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ghabbour Auto", "value" :  372}</t>
-  </si>
-  <si>
-    <t>{"label" : "GICAN", "value" :  373}</t>
-  </si>
-  <si>
-    <t>{"label" : "Giovanni Agnelli (incl. EXOR)", "value" :  374}</t>
-  </si>
-  <si>
-    <t>{"label" : "GKN", "value" :  375}</t>
-  </si>
-  <si>
-    <t>{"label" : "Goldberg Lindsay &amp; Co. Llc", "value" :  376}</t>
-  </si>
-  <si>
-    <t>{"label" : "Goldman Sachs Group", "value" :  377}</t>
-  </si>
-  <si>
-    <t>{"label" : "Goodyear", "value" :  378}</t>
-  </si>
-  <si>
-    <t>{"label" : "GrafTech International Ltd", "value" :  379}</t>
-  </si>
-  <si>
-    <t>{"label" : "Grauer &amp; Weil", "value" :  380}</t>
-  </si>
-  <si>
-    <t>{"label" : "Graybar Electric", "value" :  381}</t>
-  </si>
-  <si>
-    <t>{"label" : "Great Wall Motor", "value" :  382}</t>
-  </si>
-  <si>
-    <t>{"label" : "Great Wall Technology", "value" :  383}</t>
-  </si>
-  <si>
-    <t>{"label" : "Gree Electric Appliances", "value" :  384}</t>
-  </si>
-  <si>
-    <t>{"label" : "Group 1 Automotive", "value" :  385}</t>
-  </si>
-  <si>
-    <t>{"label" : "Group Industrial Alfa", "value" :  386}</t>
-  </si>
-  <si>
-    <t>{"label" : "Grundfos", "value" :  387}</t>
-  </si>
-  <si>
-    <t>{"label" : "Grupo Antolin", "value" :  388}</t>
-  </si>
-  <si>
-    <t>{"label" : "Grupo Berge", "value" :  389}</t>
-  </si>
-  <si>
-    <t>{"label" : "Grupo IUSA, S.A. de C.V.", "value" :  390}</t>
-  </si>
-  <si>
-    <t>{"label" : "Grupo Kuo, S.A.B. de C.V.", "value" :  391}</t>
-  </si>
-  <si>
-    <t>{"label" : "GS Yuasa", "value" :  392}</t>
-  </si>
-  <si>
-    <t>{"label" : "Guangxi Construction Engineering GroupCo., Ltd.", "value" :  393}</t>
-  </si>
-  <si>
-    <t>{"label" : "Guangxi Liugong Machinery", "value" :  394}</t>
-  </si>
-  <si>
-    <t>{"label" : "Guangxi Yuchai Machinery Group Co.Ltd", "value" :  395}</t>
-  </si>
-  <si>
-    <t>{"label" : "Guangzhou Automobile", "value" :  396}</t>
-  </si>
-  <si>
-    <t>{"label" : "GUANGZHOU RAILWAY", "value" :  397}</t>
-  </si>
-  <si>
-    <t>{"label" : "GuangzhouWanbao GroupCo. Ltd", "value" :  398}</t>
-  </si>
-  <si>
-    <t>{"label" : "Gulf States Toyota", "value" :  399}</t>
-  </si>
-  <si>
-    <t>{"label" : "GV Holding", "value" :  400}</t>
-  </si>
-  <si>
-    <t>{"label" : "Haas-Meincke Holding A/S", "value" :  401}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hahn &amp; Company Korea Limited", "value" :  402}</t>
-  </si>
-  <si>
-    <t>{"label" : "Haier Group", "value" :  403}</t>
-  </si>
-  <si>
-    <t>{"label" : "Halla Visteon Climate Control (HVCC)", "value" :  404}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hangzhou Rubber Group Company", "value" :  405}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hanil E-hwa", "value" :  406}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hankook Tire", "value" :  407}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hanwha (excl Life &amp; Chemicals)", "value" :  408}</t>
-  </si>
-  <si>
-    <t>{"label" : "Harbour Group", "value" :  409}</t>
-  </si>
-  <si>
-    <t>{"label" : "Harley-Davidson", "value" :  410}</t>
-  </si>
-  <si>
-    <t>{"label" : "Harman International", "value" :  411}</t>
-  </si>
-  <si>
-    <t>{"label" : "Harris", "value" :  412}</t>
-  </si>
-  <si>
-    <t>{"label" : "Harsco Corporation", "value" :  413}</t>
-  </si>
-  <si>
-    <t>{"label" : "Havells India Limited", "value" :  414}</t>
-  </si>
-  <si>
-    <t>{"label" : "HAWE Hydraulik SE", "value" :  415}</t>
-  </si>
-  <si>
-    <t>{"label" : "HD Supply", "value" :  416}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hebei Construction Group Co., LTd.", "value" :  417}</t>
-  </si>
-  <si>
-    <t>{"label" : "Heidelberg Druckmaschinen", "value" :  418}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hella KG &amp; Hueck", "value" :  419}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hengtong Group Co. Ltd", "value" :  420}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hero MotoCorp", "value" :  421}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hexagon", "value" :  422}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hexcel Corporation", "value" :  423}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hilti", "value" :  424}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hinduja Group", "value" :  425}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hindustan Aeronautics Ltd.", "value" :  426}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hisense Electric", "value" :  427}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hitachi", "value" :  428}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hixih Rubber Industry GroupCo. Ltd", "value" :  429}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hon Hai Precision Ind (dba Foxconn)", "value" :  430}</t>
-  </si>
-  <si>
-    <t>{"label" : "Honda Motor", "value" :  431}</t>
-  </si>
-  <si>
-    <t>{"label" : "Honeywell International", "value" :  432}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hoshiden", "value" :  433}</t>
-  </si>
-  <si>
-    <t>{"label" : "HOYA", "value" :  434}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hubbell, Inc.", "value" :  435}</t>
-  </si>
-  <si>
-    <t>{"label" : "Huntington Ingalls Industries Inc.", "value" :  436}</t>
-  </si>
-  <si>
-    <t>{"label" : "Husky Injection Molding", "value" :  437}</t>
-  </si>
-  <si>
-    <t>{"label" : "Husqvarna Vapenfabriks Ab", "value" :  438}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hyosung", "value" :  439}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hyster-Yale Materials Handling, Inc.", "value" :  440}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hyundai Heavy Industries", "value" :  441}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hyundai Mipo Dockyard Co., Ltd.", "value" :  442}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hyundai Mobis", "value" :  443}</t>
-  </si>
-  <si>
-    <t>{"label" : "Hyundai Motor", "value" :  444}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ibf - Indústria Brasileira De Filmes S/A", "value" :  445}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ibiden", "value" :  446}</t>
-  </si>
-  <si>
-    <t>{"label" : "IDEX Corporation", "value" :  447}</t>
-  </si>
-  <si>
-    <t>{"label" : "IHI", "value" :  448}</t>
-  </si>
-  <si>
-    <t>{"label" : "Illinois Tool Works", "value" :  449}</t>
-  </si>
-  <si>
-    <t>{"label" : "IMA S.p.A.", "value" :  450}</t>
-  </si>
-  <si>
-    <t>{"label" : "Imabari Shipbuilding Co.,Ltd.", "value" :  451}</t>
-  </si>
-  <si>
-    <t>{"label" : "IMEC", "value" :  452}</t>
-  </si>
-  <si>
-    <t>{"label" : "Impala SAS", "value" :  453}</t>
-  </si>
-  <si>
-    <t>{"label" : "Inchcape", "value" :  454}</t>
-  </si>
-  <si>
-    <t>{"label" : "Indesit", "value" :  455}</t>
-  </si>
-  <si>
-    <t>{"label" : "India. Ministry of Defense", "value" :  456}</t>
-  </si>
-  <si>
-    <t>{"label" : "Indra", "value" :  457}</t>
-  </si>
-  <si>
-    <t>{"label" : "Infineon Technologies", "value" :  458}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ingersoll-Rand", "value" :  459}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ingram Micro", "value" :  460}</t>
-  </si>
-  <si>
-    <t>{"label" : "Innovation Network Corporation of Japan", "value" :  461}</t>
-  </si>
-  <si>
-    <t>{"label" : "Insight Enterprises", "value" :  462}</t>
-  </si>
-  <si>
-    <t>{"label" : "Inspur Electronic Information Industry Co.,Ltd", "value" :  463}</t>
-  </si>
-  <si>
-    <t>{"label" : "Intel", "value" :  464}</t>
-  </si>
-  <si>
-    <t>{"label" : "International Automotive Components", "value" :  465}</t>
-  </si>
-  <si>
-    <t>{"label" : "International Rectifier Corporation", "value" :  466}</t>
-  </si>
-  <si>
-    <t>{"label" : "Interpump Group SpA", "value" :  467}</t>
-  </si>
-  <si>
-    <t>{"label" : "Invensys", "value" :  468}</t>
-  </si>
-  <si>
-    <t>{"label" : "Investor AB", "value" :  469}</t>
-  </si>
-  <si>
-    <t>{"label" : "Iochpe-Maxion S.A.", "value" :  470}</t>
-  </si>
-  <si>
-    <t>{"label" : "Israel Aerospace Industries", "value" :  471}</t>
-  </si>
-  <si>
-    <t>{"label" : "Israel Corp", "value" :  472}</t>
-  </si>
-  <si>
-    <t>{"label" : "Israel. Defense Forces", "value" :  473}</t>
-  </si>
-  <si>
-    <t>{"label" : "Isuzu Motors", "value" :  474}</t>
-  </si>
-  <si>
-    <t>{"label" : "Italy. Ministry of Defence", "value" :  475}</t>
-  </si>
-  <si>
-    <t>{"label" : "Itavema S/A", "value" :  476}</t>
-  </si>
-  <si>
-    <t>{"label" : "Itron", "value" :  477}</t>
-  </si>
-  <si>
-    <t>{"label" : "ITT", "value" :  478}</t>
-  </si>
-  <si>
-    <t>{"label" : "J Eberspächer", "value" :  479}</t>
-  </si>
-  <si>
-    <t>{"label" : "J. C. Bamford", "value" :  480}</t>
-  </si>
-  <si>
-    <t>{"label" : "Jabil Circuit", "value" :  481}</t>
-  </si>
-  <si>
-    <t>{"label" : "JAC Motors", "value" :  482}</t>
-  </si>
-  <si>
-    <t>{"label" : "JALUX Inc.", "value" :  483}</t>
-  </si>
-  <si>
-    <t>{"label" : "Japan Display", "value" :  484}</t>
-  </si>
-  <si>
-    <t>{"label" : "Japan. Government of", "value" :  485}</t>
-  </si>
-  <si>
-    <t>{"label" : "Japan. Ministry of Defense", "value" :  486}</t>
-  </si>
-  <si>
-    <t>{"label" : "JBS", "value" :  487}</t>
-  </si>
-  <si>
-    <t>{"label" : "Jebsen Group", "value" :  488}</t>
-  </si>
-  <si>
-    <t>{"label" : "Jenoptik", "value" :  489}</t>
-  </si>
-  <si>
-    <t>{"label" : "JFE Holdings", "value" :  490}</t>
-  </si>
-  <si>
-    <t>{"label" : "JFL Partners", "value" :  491}</t>
-  </si>
-  <si>
-    <t>{"label" : "Jim Pattison", "value" :  492}</t>
-  </si>
-  <si>
-    <t>{"label" : "Jinglong Industry and Commerce Group Co., Ltd.", "value" :  493}</t>
-  </si>
-  <si>
-    <t>{"label" : "JM Family Enterprises", "value" :  494}</t>
-  </si>
-  <si>
-    <t>{"label" : "Johnson Controls", "value" :  495}</t>
-  </si>
-  <si>
-    <t>{"label" : "Johnson Matthey", "value" :  496}</t>
-  </si>
-  <si>
-    <t>{"label" : "Joule Unlimited", "value" :  497}</t>
-  </si>
-  <si>
-    <t>{"label" : "Joy Global", "value" :  498}</t>
-  </si>
-  <si>
-    <t>{"label" : "JTEKT", "value" :  499}</t>
-  </si>
-  <si>
-    <t>{"label" : "Juffali", "value" :  500}</t>
-  </si>
-  <si>
-    <t>{"label" : "Jungheinrich", "value" :  501}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kaba Holding", "value" :  502}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kaman Corporation", "value" :  503}</t>
-  </si>
-  <si>
-    <t>{"label" : "KAMAZ OJSC", "value" :  504}</t>
-  </si>
-  <si>
-    <t>{"label" : "KATHREIN-Werke KG", "value" :  505}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kawasaki Heavy Inds", "value" :  506}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kayaba Industry", "value" :  507}</t>
-  </si>
-  <si>
-    <t>{"label" : "Keihin Corp", "value" :  508}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kemet Corporation", "value" :  509}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kennametal", "value" :  510}</t>
-  </si>
-  <si>
-    <t>{"label" : "Keppel", "value" :  511}</t>
-  </si>
-  <si>
-    <t>{"label" : "Khrunichev State Research and Production Space Center", "value" :  512}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kia Motors", "value" :  513}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kimball International", "value" :  514}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kingboard Chemical", "value" :  515}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kingston Technology", "value" :  516}</t>
-  </si>
-  <si>
-    <t>{"label" : "KION GROUP GmbH", "value" :  517}</t>
-  </si>
-  <si>
-    <t>{"label" : "KKR", "value" :  518}</t>
-  </si>
-  <si>
-    <t>{"label" : "KLA-Tencor", "value" :  519}</t>
-  </si>
-  <si>
-    <t>{"label" : "Knorr-Bremse Aktiengesellschaft", "value" :  520}</t>
-  </si>
-  <si>
-    <t>{"label" : "Koç (incl. Arcelik)", "value" :  521}</t>
-  </si>
-  <si>
-    <t>{"label" : "Koenig and Bauer AG", "value" :  522}</t>
-  </si>
-  <si>
-    <t>{"label" : "Koito Manufacturing", "value" :  523}</t>
-  </si>
-  <si>
-    <t>{"label" : "Komatsu", "value" :  524}</t>
-  </si>
-  <si>
-    <t>{"label" : "KONE", "value" :  525}</t>
-  </si>
-  <si>
-    <t>{"label" : "Konecranes Plc", "value" :  526}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kongsberg Gruppen ASA", "value" :  527}</t>
-  </si>
-  <si>
-    <t>{"label" : "Konica Minolta", "value" :  528}</t>
-  </si>
-  <si>
-    <t>{"label" : "Körber AG", "value" :  529}</t>
-  </si>
-  <si>
-    <t>{"label" : "Korea Aerospace Industries Ltd.", "value" :  530}</t>
-  </si>
-  <si>
-    <t>{"label" : "Krauss-Maffei Wegmann GmbH and Co. KG", "value" :  531}</t>
-  </si>
-  <si>
-    <t>{"label" : "Krones AG", "value" :  532}</t>
-  </si>
-  <si>
-    <t>{"label" : "KSB AG", "value" :  533}</t>
-  </si>
-  <si>
-    <t>{"label" : "KSJ Group", "value" :  534}</t>
-  </si>
-  <si>
-    <t>{"label" : "KTM Sportmotorcycle AG", "value" :  535}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kubota", "value" :  536}</t>
-  </si>
-  <si>
-    <t>{"label" : "KUKA Aktiengesellschaft (IWKA)", "value" :  537}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kulicke &amp; Soffa", "value" :  538}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kumho Tire Co., Inc.", "value" :  539}</t>
-  </si>
-  <si>
-    <t>{"label" : "Kyocera", "value" :  540}</t>
-  </si>
-  <si>
-    <t>{"label" : "L-3 Communications Holding", "value" :  541}</t>
-  </si>
-  <si>
-    <t>{"label" : "LabCorp", "value" :  542}</t>
-  </si>
-  <si>
-    <t>{"label" : "Lam Research", "value" :  543}</t>
-  </si>
-  <si>
-    <t>{"label" : "Landis+Gyr Holding AG", "value" :  544}</t>
-  </si>
-  <si>
-    <t>{"label" : "Lantiq", "value" :  545}</t>
-  </si>
-  <si>
-    <t>{"label" : "Larsen &amp; Toubro", "value" :  546}</t>
-  </si>
-  <si>
-    <t>{"label" : "Latecoere", "value" :  547}</t>
-  </si>
-  <si>
-    <t>{"label" : "Lear", "value" :  548}</t>
-  </si>
-  <si>
-    <t>{"label" : "Legend Holdings Limited", "value" :  549}</t>
-  </si>
-  <si>
-    <t>{"label" : "Legrand", "value" :  550}</t>
-  </si>
-  <si>
-    <t>{"label" : "Leidos", "value" :  551}</t>
-  </si>
-  <si>
-    <t>{"label" : "Lennox International", "value" :  552}</t>
-  </si>
-  <si>
-    <t>{"label" : "Lenze SE", "value" :  553}</t>
-  </si>
-  <si>
-    <t>{"label" : "LEONI AG", "value" :  554}</t>
-  </si>
-  <si>
-    <t>{"label" : "Lexmark", "value" :  555}</t>
-  </si>
-  <si>
-    <t>{"label" : "LG Chem", "value" :  556}</t>
-  </si>
-  <si>
-    <t>{"label" : "LG Corp", "value" :  557}</t>
-  </si>
-  <si>
-    <t>{"label" : "LG Electronics", "value" :  558}</t>
-  </si>
-  <si>
-    <t>{"label" : "LG Innotek.", "value" :  559}</t>
-  </si>
-  <si>
-    <t>{"label" : "LG International", "value" :  560}</t>
-  </si>
-  <si>
-    <t>{"label" : "Liebherr", "value" :  561}</t>
-  </si>
-  <si>
-    <t>{"label" : "Linamar Corp.", "value" :  562}</t>
-  </si>
-  <si>
-    <t>{"label" : "Lincoln Electric", "value" :  563}</t>
-  </si>
-  <si>
-    <t>{"label" : "Linde Group", "value" :  564}</t>
-  </si>
-  <si>
-    <t>{"label" : "Linear Technology", "value" :  565}</t>
-  </si>
-  <si>
-    <t>{"label" : "Lisa Dräxlmaier GmbH", "value" :  566}</t>
-  </si>
-  <si>
-    <t>{"label" : "LIXIL Group Corp.", "value" :  567}</t>
-  </si>
-  <si>
-    <t>{"label" : "LKQ Corporation", "value" :  568}</t>
-  </si>
-  <si>
-    <t>{"label" : "Lockheed Martin", "value" :  569}</t>
-  </si>
-  <si>
-    <t>{"label" : "Loral Space &amp; Communications", "value" :  570}</t>
-  </si>
-  <si>
-    <t>{"label" : "LS Corp", "value" :  571}</t>
-  </si>
-  <si>
-    <t>{"label" : "LSH", "value" :  572}</t>
-  </si>
-  <si>
-    <t>{"label" : "M+W Group", "value" :  573}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ma Laboratories", "value" :  574}</t>
-  </si>
-  <si>
-    <t>{"label" : "MAGNA International", "value" :  575}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mahindra &amp; Mahindra", "value" :  576}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mahle-Behr", "value" :  577}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mainfirst Holding Ag", "value" :  578}</t>
-  </si>
-  <si>
-    <t>{"label" : "Makita", "value" :  579}</t>
-  </si>
-  <si>
-    <t>{"label" : "MAN", "value" :  580}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mando", "value" :  581}</t>
-  </si>
-  <si>
-    <t>{"label" : "Manitowoc", "value" :  582}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mann+Hummel", "value" :  583}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mansour Group", "value" :  584}</t>
-  </si>
-  <si>
-    <t>{"label" : "ManTech International", "value" :  585}</t>
-  </si>
-  <si>
-    <t>{"label" : "Marcopolo S.A.", "value" :  586}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mark IV LLC", "value" :  587}</t>
-  </si>
-  <si>
-    <t>{"label" : "Marshall of Cambridge (Holdings) Limited", "value" :  588}</t>
-  </si>
-  <si>
-    <t>{"label" : "Marvell Technology Group", "value" :  589}</t>
-  </si>
-  <si>
-    <t>{"label" : "Masco", "value" :  590}</t>
-  </si>
-  <si>
-    <t>{"label" : "Maxim Integrated Products", "value" :  591}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mazda Motor", "value" :  592}</t>
-  </si>
-  <si>
-    <t>{"label" : "MBK Partners", "value" :  593}</t>
-  </si>
-  <si>
-    <t>{"label" : "McDermott International", "value" :  594}</t>
-  </si>
-  <si>
-    <t>{"label" : "MediaTek", "value" :  595}</t>
-  </si>
-  <si>
-    <t>{"label" : "Medtronic", "value" :  596}</t>
-  </si>
-  <si>
-    <t>{"label" : "Meggitt plc", "value" :  597}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mentor Graphics", "value" :  598}</t>
-  </si>
-  <si>
-    <t>{"label" : "Meritor", "value" :  599}</t>
-  </si>
-  <si>
-    <t>{"label" : "Metalsa S. de R.L.", "value" :  600}</t>
-  </si>
-  <si>
-    <t>{"label" : "Metso", "value" :  601}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mettler-Toledo International", "value" :  602}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mexico. Secretariat of Defense", "value" :  603}</t>
-  </si>
-  <si>
-    <t>{"label" : "Meyer Burger AG", "value" :  604}</t>
-  </si>
-  <si>
-    <t>{"label" : "MI.MO.SE.SPA", "value" :  605}</t>
-  </si>
-  <si>
-    <t>{"label" : "Michelin Group", "value" :  606}</t>
-  </si>
-  <si>
-    <t>{"label" : "Microchip Technology", "value" :  607}</t>
-  </si>
-  <si>
-    <t>{"label" : "Micron Technology", "value" :  608}</t>
-  </si>
-  <si>
-    <t>{"label" : "Micronas Holding GmbH", "value" :  609}</t>
-  </si>
-  <si>
-    <t>{"label" : "Miele and Cie. KG", "value" :  610}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mikron", "value" :  611}</t>
-  </si>
-  <si>
-    <t>{"label" : "Miller Electric", "value" :  612}</t>
-  </si>
-  <si>
-    <t>{"label" : "Minebea", "value" :  613}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mitsubishi Electric", "value" :  614}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mitsubishi Heavy Inds", "value" :  615}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mitsubishi Motors", "value" :  616}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mitsui Engineering &amp; Ship", "value" :  617}</t>
-  </si>
-  <si>
-    <t>{"label" : "Modine Manufacturing", "value" :  618}</t>
-  </si>
-  <si>
-    <t>{"label" : "Molex Incorporated", "value" :  619}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mondragon", "value" :  620}</t>
-  </si>
-  <si>
-    <t>{"label" : "Monument Capital Group", "value" :  621}</t>
-  </si>
-  <si>
-    <t>{"label" : "Moog, Inc.", "value" :  622}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mosaid Technologies Incorporated", "value" :  623}</t>
-  </si>
-  <si>
-    <t>{"label" : "MRC Global Inc.", "value" :  624}</t>
-  </si>
-  <si>
-    <t>{"label" : "MRF Ltd", "value" :  625}</t>
-  </si>
-  <si>
-    <t>{"label" : "MSC Industrial Direct", "value" :  626}</t>
-  </si>
-  <si>
-    <t>{"label" : "MTS Systems Corporation", "value" :  627}</t>
-  </si>
-  <si>
-    <t>{"label" : "MTU Euro Engines", "value" :  628}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mubadala Corporation", "value" :  629}</t>
-  </si>
-  <si>
-    <t>{"label" : "Mueller Water Products", "value" :  630}</t>
-  </si>
-  <si>
-    <t>{"label" : "Multivac", "value" :  631}</t>
-  </si>
-  <si>
-    <t>{"label" : "Murata Manufacturing", "value" :  632}</t>
-  </si>
-  <si>
-    <t>{"label" : "MV Agusta", "value" :  633}</t>
-  </si>
-  <si>
-    <t>{"label" : "NAC", "value" :  634}</t>
-  </si>
-  <si>
-    <t>{"label" : "Nacco Industries, Inc.", "value" :  635}</t>
-  </si>
-  <si>
-    <t>{"label" : "Naghi Group", "value" :  636}</t>
-  </si>
-  <si>
-    <t>{"label" : "NASA", "value" :  637}</t>
-  </si>
-  <si>
-    <t>{"label" : "National Instruments", "value" :  638}</t>
-  </si>
-  <si>
-    <t>{"label" : "Navantia", "value" :  639}</t>
-  </si>
-  <si>
-    <t>{"label" : "Navistar Intl", "value" :  640}</t>
-  </si>
-  <si>
-    <t>{"label" : "NCR", "value" :  641}</t>
-  </si>
-  <si>
-    <t>{"label" : "NEC", "value" :  642}</t>
-  </si>
-  <si>
-    <t>{"label" : "Netherlands. Defense", "value" :  643}</t>
-  </si>
-  <si>
-    <t>{"label" : "NETS", "value" :  644}</t>
-  </si>
-  <si>
-    <t>{"label" : "Nexans", "value" :  645}</t>
-  </si>
-  <si>
-    <t>{"label" : "Nexter Systems (fmr GIAT Industries)", "value" :  646}</t>
-  </si>
-  <si>
-    <t>{"label" : "NGK Spark Plug", "value" :  647}</t>
-  </si>
-  <si>
-    <t>{"label" : "NHK Spring", "value" :  648}</t>
-  </si>
-  <si>
-    <t>{"label" : "Nichia Corporation", "value" :  649}</t>
-  </si>
-  <si>
-    <t>{"label" : "Nidec", "value" :  650}</t>
-  </si>
-  <si>
-    <t>{"label" : "Nikon", "value" :  651}</t>
-  </si>
-  <si>
-    <t>{"label" : "Nippon Electric Glass", "value" :  652}</t>
-  </si>
-  <si>
-    <t>{"label" : "Nissan Shatai Co., Ltd.", "value" :  653}</t>
-  </si>
-  <si>
-    <t>{"label" : "Nisshinbo Industries", "value" :  654}</t>
-  </si>
-  <si>
-    <t>{"label" : "NKT Holding A/S", "value" :  655}</t>
-  </si>
-  <si>
-    <t>{"label" : "Nordex SE", "value" :  656}</t>
-  </si>
-  <si>
-    <t>{"label" : "Nordson Corporation", "value" :  657}</t>
-  </si>
-  <si>
-    <t>{"label" : "Norma Group", "value" :  658}</t>
-  </si>
-  <si>
-    <t>{"label" : "Nortek, Inc.", "value" :  659}</t>
-  </si>
-  <si>
-    <t>{"label" : "North Atlantic Treaty Organization - NATO", "value" :  660}</t>
-  </si>
-  <si>
-    <t>{"label" : "Northrop Grumman", "value" :  661}</t>
-  </si>
-  <si>
-    <t>{"label" : "Norway. Ministry of Defense", "value" :  662}</t>
-  </si>
-  <si>
-    <t>{"label" : "Norwest Equity Partners", "value" :  663}</t>
-  </si>
-  <si>
-    <t>{"label" : "NOW GMBH", "value" :  664}</t>
-  </si>
-  <si>
-    <t>{"label" : "NSK", "value" :  665}</t>
-  </si>
-  <si>
-    <t>{"label" : "NTN", "value" :  666}</t>
-  </si>
-  <si>
-    <t>{"label" : "Nvidia", "value" :  667}</t>
-  </si>
-  <si>
-    <t>{"label" : "NXP Semiconductors", "value" :  668}</t>
-  </si>
-  <si>
-    <t>{"label" : "Oaktree Capital Management", "value" :  669}</t>
-  </si>
-  <si>
-    <t>{"label" : "Oerlikon Buhrle", "value" :  670}</t>
-  </si>
-  <si>
-    <t>{"label" : "OJSC Research and production corporation UralVagonZavod", "value" :  671}</t>
-  </si>
-  <si>
-    <t>{"label" : "Oki Electric Industry Company", "value" :  672}</t>
-  </si>
-  <si>
-    <t>{"label" : "Okuma", "value" :  673}</t>
-  </si>
-  <si>
-    <t>{"label" : "Omni United (S) Pte. Ltd.", "value" :  674}</t>
-  </si>
-  <si>
-    <t>{"label" : "Omron", "value" :  675}</t>
-  </si>
-  <si>
-    <t>{"label" : "OMZ Uralmash-Izhora Group OJSC", "value" :  676}</t>
-  </si>
-  <si>
-    <t>{"label" : "ON Semiconductor Corporation", "value" :  677}</t>
-  </si>
-  <si>
-    <t>{"label" : "Onex", "value" :  678}</t>
-  </si>
-  <si>
-    <t>{"label" : "Opple Lighting Co., Ltd.", "value" :  679}</t>
-  </si>
-  <si>
-    <t>{"label" : "Orbital ATK", "value" :  680}</t>
-  </si>
-  <si>
-    <t>{"label" : "Oshkosh Corporation", "value" :  681}</t>
-  </si>
-  <si>
-    <t>{"label" : "OSRAM Licht", "value" :  682}</t>
-  </si>
-  <si>
-    <t>{"label" : "Otsuka Corporation", "value" :  683}</t>
-  </si>
-  <si>
-    <t>{"label" : "Outerwall Inc", "value" :  684}</t>
-  </si>
-  <si>
-    <t>{"label" : "Outotec Oyj", "value" :  685}</t>
-  </si>
-  <si>
-    <t>{"label" : "Owens Corning", "value" :  686}</t>
-  </si>
-  <si>
-    <t>{"label" : "Oy Partek (Cargotec)", "value" :  687}</t>
-  </si>
-  <si>
-    <t>{"label" : "Paccar", "value" :  688}</t>
-  </si>
-  <si>
-    <t>{"label" : "Paladin Capital Group", "value" :  689}</t>
-  </si>
-  <si>
-    <t>{"label" : "Pall Corporation", "value" :  690}</t>
-  </si>
-  <si>
-    <t>{"label" : "Panasonic", "value" :  691}</t>
-  </si>
-  <si>
-    <t>{"label" : "Pang Da Automobile Trade", "value" :  692}</t>
-  </si>
-  <si>
-    <t>{"label" : "Parker-Hannifin", "value" :  693}</t>
-  </si>
-  <si>
-    <t>{"label" : "Pegatron", "value" :  694}</t>
-  </si>
-  <si>
-    <t>{"label" : "Penske Automotive", "value" :  695}</t>
-  </si>
-  <si>
-    <t>{"label" : "Pentair", "value" :  696}</t>
-  </si>
-  <si>
-    <t>{"label" : "PERI", "value" :  697}</t>
-  </si>
-  <si>
-    <t>{"label" : "PerkinElmer", "value" :  698}</t>
-  </si>
-  <si>
-    <t>{"label" : "Peru. Defense", "value" :  699}</t>
-  </si>
-  <si>
-    <t>{"label" : "Philips", "value" :  700}</t>
-  </si>
-  <si>
-    <t>{"label" : "Piaggio", "value" :  701}</t>
-  </si>
-  <si>
-    <t>{"label" : "Pioneer", "value" :  702}</t>
-  </si>
-  <si>
-    <t>{"label" : "Pirelli &amp; C", "value" :  703}</t>
-  </si>
-  <si>
-    <t>{"label" : "Pitney Bowes", "value" :  704}</t>
-  </si>
-  <si>
-    <t>{"label" : "Plastal", "value" :  705}</t>
-  </si>
-  <si>
-    <t>{"label" : "PLexus Corp", "value" :  706}</t>
-  </si>
-  <si>
-    <t>{"label" : "PMC-Sierra", "value" :  707}</t>
-  </si>
-  <si>
-    <t>{"label" : "Poland. Ministry of Defense", "value" :  708}</t>
-  </si>
-  <si>
-    <t>{"label" : "Polaris Industries", "value" :  709}</t>
-  </si>
-  <si>
-    <t>{"label" : "Pon Holdings B.V.", "value" :  710}</t>
-  </si>
-  <si>
-    <t>{"label" : "Portugal. Ministry of Defense", "value" :  711}</t>
-  </si>
-  <si>
-    <t>{"label" : "Positivo Informatica", "value" :  712}</t>
-  </si>
-  <si>
-    <t>{"label" : "Possehl", "value" :  713}</t>
-  </si>
-  <si>
-    <t>{"label" : "Power M", "value" :  714}</t>
-  </si>
-  <si>
-    <t>{"label" : "PPG Industries", "value" :  715}</t>
-  </si>
-  <si>
-    <t>{"label" : "PRAJ Industries Ltd", "value" :  716}</t>
-  </si>
-  <si>
-    <t>{"label" : "Praxair", "value" :  717}</t>
-  </si>
-  <si>
-    <t>{"label" : "Precision Castparts", "value" :  718}</t>
-  </si>
-  <si>
-    <t>{"label" : "Preh GmbH", "value" :  719}</t>
-  </si>
-  <si>
-    <t>{"label" : "Primax Electronics", "value" :  720}</t>
-  </si>
-  <si>
-    <t>{"label" : "Prosegur", "value" :  721}</t>
-  </si>
-  <si>
-    <t>{"label" : "Prysmian SpA", "value" :  722}</t>
-  </si>
-  <si>
-    <t>{"label" : "PSA Peugeot Citroen S.A.", "value" :  723}</t>
-  </si>
-  <si>
-    <t>{"label" : "PV Automotive GmbH", "value" :  724}</t>
-  </si>
-  <si>
-    <t>{"label" : "QinetiQ", "value" :  725}</t>
-  </si>
-  <si>
-    <t>{"label" : "Qoros", "value" :  726}</t>
-  </si>
-  <si>
-    <t>{"label" : "Qorvo", "value" :  727}</t>
-  </si>
-  <si>
-    <t>{"label" : "Qualcomm", "value" :  728}</t>
-  </si>
-  <si>
-    <t>{"label" : "Quanta Computer", "value" :  729}</t>
-  </si>
-  <si>
-    <t>{"label" : "Radici", "value" :  730}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rane Ltd", "value" :  731}</t>
-  </si>
-  <si>
-    <t>{"label" : "Raytheon", "value" :  732}</t>
-  </si>
-  <si>
-    <t>{"label" : "Red Eléctrica", "value" :  733}</t>
-  </si>
-  <si>
-    <t>{"label" : "Regal-Beloit Corp.", "value" :  734}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rejsekort A/S", "value" :  735}</t>
-  </si>
-  <si>
-    <t>{"label" : "Remy International", "value" :  736}</t>
-  </si>
-  <si>
-    <t>{"label" : "Renault Nissan", "value" :  737}</t>
-  </si>
-  <si>
-    <t>{"label" : "Renesas Electronics", "value" :  738}</t>
-  </si>
-  <si>
-    <t>{"label" : "Renold", "value" :  739}</t>
-  </si>
-  <si>
-    <t>{"label" : "REPH", "value" :  740}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rexam Healthcare Packaging Inc.", "value" :  741}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rexel", "value" :  742}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rexnord", "value" :  743}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rheinmetall", "value" :  744}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rieter", "value" :  745}</t>
-  </si>
-  <si>
-    <t>{"label" : "RMA Group", "value" :  746}</t>
-  </si>
-  <si>
-    <t>{"label" : "Robert Bosch", "value" :  747}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rockwell Automation", "value" :  748}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rockwell Collins", "value" :  749}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rockwool", "value" :  750}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rohm", "value" :  751}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rolls-Royce Group", "value" :  752}</t>
-  </si>
-  <si>
-    <t>{"label" : "Roper Industries", "value" :  753}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rosatom", "value" :  754}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rosoboronexport", "value" :  755}</t>
-  </si>
-  <si>
-    <t>{"label" : "Rostec", "value" :  756}</t>
-  </si>
-  <si>
-    <t>{"label" : "RPG Enterprises", "value" :  757}</t>
-  </si>
-  <si>
-    <t>{"label" : "RUAG", "value" :  758}</t>
-  </si>
-  <si>
-    <t>{"label" : "Russia. Defense", "value" :  759}</t>
-  </si>
-  <si>
-    <t>{"label" : "Saab AB", "value" :  760}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sacmi Group", "value" :  761}</t>
-  </si>
-  <si>
-    <t>{"label" : "SAFRAN", "value" :  762}</t>
-  </si>
-  <si>
-    <t>{"label" : "SAG Group GmbH", "value" :  763}</t>
-  </si>
-  <si>
-    <t>{"label" : "SAIC Motor", "value" :  764}</t>
-  </si>
-  <si>
-    <t>{"label" : "Saipem", "value" :  765}</t>
-  </si>
-  <si>
-    <t>{"label" : "Samsung Electro-Mech", "value" :  766}</t>
-  </si>
-  <si>
-    <t>{"label" : "Samsung Heavy Industries", "value" :  767}</t>
-  </si>
-  <si>
-    <t>{"label" : "Samsung SDI", "value" :  768}</t>
-  </si>
-  <si>
-    <t>{"label" : "Samsung Techwin", "value" :  769}</t>
-  </si>
-  <si>
-    <t>{"label" : "Samyang", "value" :  770}</t>
-  </si>
-  <si>
-    <t>{"label" : "SanDisk", "value" :  771}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sandvik", "value" :  772}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sanitec", "value" :  773}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sanmina-SCI", "value" :  774}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sany Heavy Industry", "value" :  775}</t>
-  </si>
-  <si>
-    <t>{"label" : "Saudi Arabia. Defense", "value" :  776}</t>
-  </si>
-  <si>
-    <t>{"label" : "Scania", "value" :  777}</t>
-  </si>
-  <si>
-    <t>{"label" : "ScanSource, Inc.", "value" :  778}</t>
-  </si>
-  <si>
-    <t>{"label" : "Schaeffler Group", "value" :  779}</t>
-  </si>
-  <si>
-    <t>{"label" : "Schindler Holding", "value" :  780}</t>
-  </si>
-  <si>
-    <t>{"label" : "Schmitz Cargobull", "value" :  781}</t>
-  </si>
-  <si>
-    <t>{"label" : "Schneider Electric", "value" :  782}</t>
-  </si>
-  <si>
-    <t>{"label" : "Schott AG", "value" :  783}</t>
-  </si>
-  <si>
-    <t>{"label" : "SCREEN", "value" :  784}</t>
-  </si>
-  <si>
-    <t>{"label" : "Seagate Technology", "value" :  785}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sealed Air", "value" :  786}</t>
-  </si>
-  <si>
-    <t>{"label" : "SEB SA", "value" :  787}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sequa Corp", "value" :  788}</t>
-  </si>
-  <si>
-    <t>{"label" : "Serco Group", "value" :  789}</t>
-  </si>
-  <si>
-    <t>{"label" : "Serviço Nacional De Aprendizagem Industrial - Senai", "value" :  790}</t>
-  </si>
-  <si>
-    <t>{"label" : "Severstal", "value" :  791}</t>
-  </si>
-  <si>
-    <t>{"label" : "SEW Eurodrive", "value" :  792}</t>
-  </si>
-  <si>
-    <t>{"label" : "Shaanxi Automobile Group Co. Ltd", "value" :  793}</t>
-  </si>
-  <si>
-    <t>{"label" : "Shandong Heavy Industry", "value" :  794}</t>
-  </si>
-  <si>
-    <t>{"label" : "Shandong Shifeng (Group) Co. Ltd", "value" :  795}</t>
-  </si>
-  <si>
-    <t>{"label" : "Shanghai Electric Group", "value" :  796}</t>
-  </si>
-  <si>
-    <t>{"label" : "Shenyang YuandaEnterprise Group Co.Ltd", "value" :  797}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sherwin-Williams", "value" :  798}</t>
-  </si>
-  <si>
-    <t>{"label" : "Shimadzu Corp.", "value" :  799}</t>
-  </si>
-  <si>
-    <t>{"label" : "Shimano", "value" :  800}</t>
-  </si>
-  <si>
-    <t>{"label" : "Shin-Etsu Chemical", "value" :  801}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sichuan Changhong Electric", "value" :  802}</t>
-  </si>
-  <si>
-    <t>{"label" : "Siemens", "value" :  803}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sierra Nevada Corporation", "value" :  804}</t>
-  </si>
-  <si>
-    <t>{"label" : "Singapore Technologies", "value" :  805}</t>
-  </si>
-  <si>
-    <t>{"label" : "Singapore. Defense", "value" :  806}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sinomach", "value" :  807}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sinotruk", "value" :  808}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sinquest Pte Ltd", "value" :  809}</t>
-  </si>
-  <si>
-    <t>{"label" : "SK Holdings Co., Ltd", "value" :  810}</t>
-  </si>
-  <si>
-    <t>{"label" : "SKF Group", "value" :  811}</t>
-  </si>
-  <si>
-    <t>{"label" : "Skyworks Solutions", "value" :  812}</t>
-  </si>
-  <si>
-    <t>{"label" : "Skyworth Digital", "value" :  813}</t>
-  </si>
-  <si>
-    <t>{"label" : "SMC", "value" :  814}</t>
-  </si>
-  <si>
-    <t>{"label" : "Smiths Group", "value" :  815}</t>
-  </si>
-  <si>
-    <t>{"label" : "SMS Group", "value" :  816}</t>
-  </si>
-  <si>
-    <t>{"label" : "Snap-on Incorporated", "value" :  817}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sogefi", "value" :  818}</t>
-  </si>
-  <si>
-    <t>{"label" : "Solaris Bus &amp; Coach S A", "value" :  819}</t>
-  </si>
-  <si>
-    <t>{"label" : "Solidium Oy", "value" :  820}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sollers", "value" :  821}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sonepar S.A.", "value" :  822}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sonic Automotive", "value" :  823}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sotreq", "value" :  824}</t>
-  </si>
-  <si>
-    <t>{"label" : "South Korea. Government of", "value" :  825}</t>
-  </si>
-  <si>
-    <t>{"label" : "South Korea. Ministry of National Defense", "value" :  826}</t>
-  </si>
-  <si>
-    <t>{"label" : "Space Exploration Technologies Corp.", "value" :  827}</t>
-  </si>
-  <si>
-    <t>{"label" : "Spain. Defense", "value" :  828}</t>
-  </si>
-  <si>
-    <t>{"label" : "Spansion Inc", "value" :  829}</t>
-  </si>
-  <si>
-    <t>{"label" : "Spirit AeroSystems Holdings Inc.", "value" :  830}</t>
-  </si>
-  <si>
-    <t>{"label" : "SPX", "value" :  831}</t>
-  </si>
-  <si>
-    <t>{"label" : "SR Technics Switzerland AG", "value" :  832}</t>
-  </si>
-  <si>
-    <t>{"label" : "St Jude Medical", "value" :  833}</t>
-  </si>
-  <si>
-    <t>{"label" : "Stadler Rail Group", "value" :  834}</t>
-  </si>
-  <si>
-    <t>{"label" : "Stanley Black &amp; Decker", "value" :  835}</t>
-  </si>
-  <si>
-    <t>{"label" : "Stanley Electric", "value" :  836}</t>
-  </si>
-  <si>
-    <t>{"label" : "Steelcase Inc.", "value" :  837}</t>
-  </si>
-  <si>
-    <t>{"label" : "Stihl Holding AG and Co. KG", "value" :  838}</t>
-  </si>
-  <si>
-    <t>{"label" : "STMicroElectronics", "value" :  839}</t>
-  </si>
-  <si>
-    <t>{"label" : "Stork B.V.", "value" :  840}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sulzer", "value" :  841}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sumco", "value" :  842}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sumitomo Electric", "value" :  843}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sumitomo Heavy Industries", "value" :  844}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sumitomo Rubber", "value" :  845}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sun Capital Partners", "value" :  846}</t>
-  </si>
-  <si>
-    <t>{"label" : "SunEdison", "value" :  847}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sungwoo Hitech", "value" :  848}</t>
-  </si>
-  <si>
-    <t>{"label" : "Suspensys", "value" :  849}</t>
-  </si>
-  <si>
-    <t>{"label" : "Suzlon Energy", "value" :  850}</t>
-  </si>
-  <si>
-    <t>{"label" : "Suzuki Motor", "value" :  851}</t>
-  </si>
-  <si>
-    <t>{"label" : "Svenska fordonkomponengruppen", "value" :  852}</t>
-  </si>
-  <si>
-    <t>{"label" : "Sweden. Defense", "value" :  853}</t>
-  </si>
-  <si>
-    <t>{"label" : "Switzerland. Eidgenossiches Militar / Departement", "value" :  854}</t>
-  </si>
-  <si>
-    <t>{"label" : "Synopsys", "value" :  855}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tactical Missiles Corporation JSC", "value" :  856}</t>
-  </si>
-  <si>
-    <t>{"label" : "Taiwan Semiconductor", "value" :  857}</t>
-  </si>
-  <si>
-    <t>{"label" : "Taiwan. Defense", "value" :  858}</t>
-  </si>
-  <si>
-    <t>{"label" : "Taiyo Yuden", "value" :  859}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tata (excl Motor, Steel &amp; Power)", "value" :  860}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tata Motors", "value" :  861}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tatung", "value" :  862}</t>
-  </si>
-  <si>
-    <t>{"label" : "TDK", "value" :  863}</t>
-  </si>
-  <si>
-    <t>{"label" : "TE Connectivity", "value" :  864}</t>
-  </si>
-  <si>
-    <t>{"label" : "Technip", "value" :  865}</t>
-  </si>
-  <si>
-    <t>{"label" : "Technogym", "value" :  866}</t>
-  </si>
-  <si>
-    <t>{"label" : "Technolatina", "value" :  867}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tecnicas Reunidas", "value" :  868}</t>
-  </si>
-  <si>
-    <t>{"label" : "Teledyne Technologies, Inc.", "value" :  869}</t>
-  </si>
-  <si>
-    <t>{"label" : "Teleflex, Inc.", "value" :  870}</t>
-  </si>
-  <si>
-    <t>{"label" : "Temasek Holding", "value" :  871}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tenneco", "value" :  872}</t>
-  </si>
-  <si>
-    <t>{"label" : "Teradyne", "value" :  873}</t>
-  </si>
-  <si>
-    <t>{"label" : "Terex Corporation", "value" :  874}</t>
-  </si>
-  <si>
-    <t>{"label" : "Terma", "value" :  875}</t>
-  </si>
-  <si>
-    <t>{"label" : "Terra Firma Capital Partners Ltd", "value" :  876}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tetra Laval", "value" :  877}</t>
-  </si>
-  <si>
-    <t>{"label" : "Texas Instruments", "value" :  878}</t>
-  </si>
-  <si>
-    <t>{"label" : "Textron", "value" :  879}</t>
-  </si>
-  <si>
-    <t>{"label" : "Thales", "value" :  880}</t>
-  </si>
-  <si>
-    <t>{"label" : "The Carlyle Group", "value" :  881}</t>
-  </si>
-  <si>
-    <t>{"label" : "The MITRE Corporation", "value" :  882}</t>
-  </si>
-  <si>
-    <t>{"label" : "The New Motion B.V", "value" :  883}</t>
-  </si>
-  <si>
-    <t>{"label" : "Thermax", "value" :  884}</t>
-  </si>
-  <si>
-    <t>{"label" : "Thermo Fisher", "value" :  885}</t>
-  </si>
-  <si>
-    <t>{"label" : "Thomas H Lee", "value" :  886}</t>
-  </si>
-  <si>
-    <t>{"label" : "Thor Industries", "value" :  887}</t>
-  </si>
-  <si>
-    <t>{"label" : "ThyssenKrupp Group", "value" :  888}</t>
-  </si>
-  <si>
-    <t>{"label" : "TianjinZhonghuan Electronics Information GroupCo.Ltd", "value" :  889}</t>
-  </si>
-  <si>
-    <t>{"label" : "Timken", "value" :  890}</t>
-  </si>
-  <si>
-    <t>{"label" : "TKJ Corporation", "value" :  891}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tokai Rika Co., Ltd.", "value" :  892}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tokai Rubber Industries", "value" :  893}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tokyo Electron", "value" :  894}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tomkins plc", "value" :  895}</t>
-  </si>
-  <si>
-    <t>{"label" : "TomTom", "value" :  896}</t>
-  </si>
-  <si>
-    <t>{"label" : "Toppan Printing", "value" :  897}</t>
-  </si>
-  <si>
-    <t>{"label" : "Toshiba", "value" :  898}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tower International", "value" :  899}</t>
-  </si>
-  <si>
-    <t>{"label" : "Toyo Tire &amp; Rubber", "value" :  900}</t>
-  </si>
-  <si>
-    <t>{"label" : "Toyoda Gosei Co., Ltd.", "value" :  901}</t>
-  </si>
-  <si>
-    <t>{"label" : "Toyota Boshoku", "value" :  902}</t>
-  </si>
-  <si>
-    <t>{"label" : "Toyota Industries", "value" :  903}</t>
-  </si>
-  <si>
-    <t>{"label" : "Toyota Motor", "value" :  904}</t>
-  </si>
-  <si>
-    <t>{"label" : "Toyota Tsusho", "value" :  905}</t>
-  </si>
-  <si>
-    <t>{"label" : "TPG Capital", "value" :  906}</t>
-  </si>
-  <si>
-    <t>{"label" : "TPV Technology", "value" :  907}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tramontina", "value" :  908}</t>
-  </si>
-  <si>
-    <t>{"label" : "Transmashholding ZAO", "value" :  909}</t>
-  </si>
-  <si>
-    <t>{"label" : "Trelleborg AB", "value" :  910}</t>
-  </si>
-  <si>
-    <t>{"label" : "Triad Semiconductor", "value" :  911}</t>
-  </si>
-  <si>
-    <t>{"label" : "Trimble Navigation Ltd", "value" :  912}</t>
-  </si>
-  <si>
-    <t>{"label" : "Trinity Industries", "value" :  913}</t>
-  </si>
-  <si>
-    <t>{"label" : "Triumph Group", "value" :  914}</t>
-  </si>
-  <si>
-    <t>{"label" : "Trost Auto Service Technik SE", "value" :  915}</t>
-  </si>
-  <si>
-    <t>{"label" : "Trumpf", "value" :  916}</t>
-  </si>
-  <si>
-    <t>{"label" : "TRW Automotive Hldgs", "value" :  917}</t>
-  </si>
-  <si>
-    <t>{"label" : "TS TECH Co., Ltd.", "value" :  918}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tsinghua Tongfang", "value" :  919}</t>
-  </si>
-  <si>
-    <t>{"label" : "TT Electronics", "value" :  920}</t>
-  </si>
-  <si>
-    <t>{"label" : "TTM Technologies", "value" :  921}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tupy S.A.", "value" :  922}</t>
-  </si>
-  <si>
-    <t>{"label" : "Turkey. Undersecretary of Defense", "value" :  923}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tüv Süd AG", "value" :  924}</t>
-  </si>
-  <si>
-    <t>{"label" : "TVS (incl. Sundram Fasteners)", "value" :  925}</t>
-  </si>
-  <si>
-    <t>{"label" : "Tyco International", "value" :  926}</t>
-  </si>
-  <si>
-    <t>{"label" : "UAE. Defense", "value" :  927}</t>
-  </si>
-  <si>
-    <t>{"label" : "UK. Ministry of Defence", "value" :  928}</t>
-  </si>
-  <si>
-    <t>{"label" : "UKC Holdings Corporation", "value" :  929}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ukraine. Government of", "value" :  930}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ultra Electronics Holdings plc", "value" :  931}</t>
-  </si>
-  <si>
-    <t>{"label" : "Ulvac", "value" :  932}</t>
-  </si>
-  <si>
-    <t>{"label" : "UMW Holdings Bhd", "value" :  933}</t>
-  </si>
-  <si>
-    <t>{"label" : "Underwriters Laboratories Inc.", "value" :  934}</t>
-  </si>
-  <si>
-    <t>{"label" : "United Aircraft Corp. JSC", "value" :  935}</t>
-  </si>
-  <si>
-    <t>{"label" : "United Launch Alliance", "value" :  936}</t>
-  </si>
-  <si>
-    <t>{"label" : "United MicroElectronics (UMC)", "value" :  937}</t>
-  </si>
-  <si>
-    <t>{"label" : "United Rentals", "value" :  938}</t>
-  </si>
-  <si>
-    <t>{"label" : "United Space Alliance", "value" :  939}</t>
-  </si>
-  <si>
-    <t>{"label" : "United Technologies", "value" :  940}</t>
-  </si>
-  <si>
-    <t>{"label" : "Upstream Capital Management", "value" :  941}</t>
-  </si>
-  <si>
-    <t>{"label" : "US. Department of Defense", "value" :  942}</t>
-  </si>
-  <si>
-    <t>{"label" : "Vaillant Group", "value" :  943}</t>
-  </si>
-  <si>
-    <t>{"label" : "Valeo", "value" :  944}</t>
-  </si>
-  <si>
-    <t>{"label" : "Valmet", "value" :  945}</t>
-  </si>
-  <si>
-    <t>{"label" : "Varian Medical Systems", "value" :  946}</t>
-  </si>
-  <si>
-    <t>{"label" : "Veeco", "value" :  947}</t>
-  </si>
-  <si>
-    <t>{"label" : "VeriFone Systems Inc", "value" :  948}</t>
-  </si>
-  <si>
-    <t>{"label" : "Veritas Capital Management", "value" :  949}</t>
-  </si>
-  <si>
-    <t>{"label" : "Vestas Wind Systems", "value" :  950}</t>
-  </si>
-  <si>
-    <t>{"label" : "Vestel Elektronik Sanayi Ve Ticaret AS", "value" :  951}</t>
-  </si>
-  <si>
-    <t>{"label" : "Videocon Industries Limited", "value" :  952}</t>
-  </si>
-  <si>
-    <t>{"label" : "Viessmann Werke GmbH and Co. KG", "value" :  953}</t>
-  </si>
-  <si>
-    <t>{"label" : "ViewSonic", "value" :  954}</t>
-  </si>
-  <si>
-    <t>{"label" : "Vishay Intertechnology", "value" :  955}</t>
-  </si>
-  <si>
-    <t>{"label" : "Visteon", "value" :  956}</t>
-  </si>
-  <si>
-    <t>{"label" : "VKR Holding A/S", "value" :  957}</t>
-  </si>
-  <si>
-    <t>{"label" : "Voith", "value" :  958}</t>
-  </si>
-  <si>
-    <t>{"label" : "Volkswagen Group (incl. Porsche)", "value" :  959}</t>
-  </si>
-  <si>
-    <t>{"label" : "Volvo Group", "value" :  960}</t>
-  </si>
-  <si>
-    <t>{"label" : "Vossloh AG", "value" :  961}</t>
-  </si>
-  <si>
-    <t>{"label" : "WABCO Holdings", "value" :  962}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wabtec", "value" :  963}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wacker Chemie", "value" :  964}</t>
-  </si>
-  <si>
-    <t>{"label" : "Walsin Lihwa Corporation", "value" :  965}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wanfeng Auto Holding Group", "value" :  966}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wanxiang Group", "value" :  967}</t>
-  </si>
-  <si>
-    <t>{"label" : "Warburg Pincus", "value" :  968}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wärtsilä", "value" :  969}</t>
-  </si>
-  <si>
-    <t>{"label" : "Waters", "value" :  970}</t>
-  </si>
-  <si>
-    <t>{"label" : "Watsco, Inc.", "value" :  971}</t>
-  </si>
-  <si>
-    <t>{"label" : "Watts Water Technologies, Inc.", "value" :  972}</t>
-  </si>
-  <si>
-    <t>{"label" : "Webasto", "value" :  973}</t>
-  </si>
-  <si>
-    <t>{"label" : "WEG", "value" :  974}</t>
-  </si>
-  <si>
-    <t>{"label" : "Weichai Power", "value" :  975}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wendel", "value" :  976}</t>
-  </si>
-  <si>
-    <t>{"label" : "Western Digital", "value" :  977}</t>
-  </si>
-  <si>
-    <t>{"label" : "Whirlpool", "value" :  978}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wilo SE", "value" :  979}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wincor Nixdorf", "value" :  980}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wirtgen Group", "value" :  981}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wistron", "value" :  982}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wlr Recovery Associates", "value" :  983}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wolong Holding Group Co., Ltd.", "value" :  984}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wolseley", "value" :  985}</t>
-  </si>
-  <si>
-    <t>{"label" : "Woodward, Inc.", "value" :  986}</t>
-  </si>
-  <si>
-    <t>{"label" : "WPG Holdings", "value" :  987}</t>
-  </si>
-  <si>
-    <t>{"label" : "Wulong Group", "value" :  988}</t>
-  </si>
-  <si>
-    <t>{"label" : "Würth Group", "value" :  989}</t>
-  </si>
-  <si>
-    <t>{"label" : "WW Grainger", "value" :  990}</t>
-  </si>
-  <si>
-    <t>{"label" : "XCMG Construction Machinery", "value" :  991}</t>
-  </si>
-  <si>
-    <t>{"label" : "Xilinx", "value" :  992}</t>
-  </si>
-  <si>
-    <t>{"label" : "Xylem, Inc.", "value" :  993}</t>
-  </si>
-  <si>
-    <t>{"label" : "Yamaha Motor", "value" :  994}</t>
-  </si>
-  <si>
-    <t>{"label" : "Yanmar Co., Ltd.", "value" :  995}</t>
-  </si>
-  <si>
-    <t>{"label" : "Yaskawa Electric", "value" :  996}</t>
-  </si>
-  <si>
-    <t>{"label" : "Yazaki Corporation", "value" :  997}</t>
-  </si>
-  <si>
-    <t>{"label" : "YKK Corporation", "value" :  998}</t>
-  </si>
-  <si>
-    <t>{"label" : "Yokogawa Electric", "value" :  999}</t>
-  </si>
-  <si>
-    <t>{"label" : "Yokohama Rubber", "value" :  1000}</t>
-  </si>
-  <si>
-    <t>{"label" : "Yongda Auto Group", "value" :  1001}</t>
-  </si>
-  <si>
-    <t>{"label" : "York Capital Management/Kaupthing Bank", "value" :  1002}</t>
-  </si>
-  <si>
-    <t>{"label" : "Zeppelin Stiftung", "value" :  1003}</t>
-  </si>
-  <si>
-    <t>{"label" : "Zhejiang Commercial Group Corporation", "value" :  1004}</t>
-  </si>
-  <si>
-    <t>{"label" : "Zhejiang Materials", "value" :  1005}</t>
-  </si>
-  <si>
-    <t>{"label" : "Zhengzhou Yutong Bus", "value" :  1006}</t>
-  </si>
-  <si>
-    <t>{"label" : "Zhongsheng Group Holdings Ltd", "value" :  1007}</t>
-  </si>
-  <si>
-    <t>{"label" : "Zilor de Almeida Santos", "value" :  1008}</t>
-  </si>
-  <si>
-    <t>{"label" : "Zodiac Aerospace SA", "value" :  1009}</t>
-  </si>
-  <si>
-    <t>{"label" : "Zoomlion Heavy Industry", "value" :  1010}</t>
-  </si>
-  <si>
-    <t>{"label" : "Zorlu Holding A.S.", "value" :  1011}</t>
-  </si>
-  <si>
-    <t>{"label" : "Zumtobel", "value" :  1012}</t>
+    <t>{"label" : "name", "value" :  code},</t>
+  </si>
+  <si>
+    <t>{"label" : "3M", "value" :  1},</t>
+  </si>
+  <si>
+    <t>{"label" : "A.O. Smith", "value" :  2},</t>
+  </si>
+  <si>
+    <t>{"label" : "A.W.Rostamani Holdings Co (L.L.C)", "value" :  3},</t>
+  </si>
+  <si>
+    <t>{"label" : "AAR Corp", "value" :  4},</t>
+  </si>
+  <si>
+    <t>{"label" : "ABB", "value" :  5},</t>
+  </si>
+  <si>
+    <t>{"label" : "Abdul Latif Jameel Co.", "value" :  6},</t>
+  </si>
+  <si>
+    <t>{"label" : "Abengoa", "value" :  7},</t>
+  </si>
+  <si>
+    <t>{"label" : "Accuride", "value" :  8},</t>
+  </si>
+  <si>
+    <t>{"label" : "ACS Group", "value" :  9},</t>
+  </si>
+  <si>
+    <t>{"label" : "Actuant Corp", "value" :  10},</t>
+  </si>
+  <si>
+    <t>{"label" : "Acuity Brands", "value" :  11},</t>
+  </si>
+  <si>
+    <t>{"label" : "Aditya Birla", "value" :  12},</t>
+  </si>
+  <si>
+    <t>{"label" : "ADS, Inc.", "value" :  13},</t>
+  </si>
+  <si>
+    <t>{"label" : "Advance Auto Parts", "value" :  14},</t>
+  </si>
+  <si>
+    <t>{"label" : "Advanced Micro", "value" :  15},</t>
+  </si>
+  <si>
+    <t>{"label" : "Advanced Semiconductor Engineering", "value" :  16},</t>
+  </si>
+  <si>
+    <t>{"label" : "AEC - Advanced Electronics Company", "value" :  17},</t>
+  </si>
+  <si>
+    <t>{"label" : "ÅF AB", "value" :  18},</t>
+  </si>
+  <si>
+    <t>{"label" : "Affinia Group", "value" :  19},</t>
+  </si>
+  <si>
+    <t>{"label" : "AGCO", "value" :  20},</t>
+  </si>
+  <si>
+    <t>{"label" : "Agilent Technologies", "value" :  21},</t>
+  </si>
+  <si>
+    <t>{"label" : "Agrale", "value" :  22},</t>
+  </si>
+  <si>
+    <t>{"label" : "Air Works India (Engineering) Private Limited", "value" :  23},</t>
+  </si>
+  <si>
+    <t>{"label" : "Airbus Group", "value" :  24},</t>
+  </si>
+  <si>
+    <t>{"label" : "Aisin Seiki", "value" :  25},</t>
+  </si>
+  <si>
+    <t>{"label" : "Aixtron", "value" :  26},</t>
+  </si>
+  <si>
+    <t>{"label" : "Akebono Brake Industry", "value" :  27},</t>
+  </si>
+  <si>
+    <t>{"label" : "Alaa Industrial Equipment Factory", "value" :  28},</t>
+  </si>
+  <si>
+    <t>{"label" : "Alcoa", "value" :  29},</t>
+  </si>
+  <si>
+    <t>{"label" : "Alfa Laval", "value" :  30},</t>
+  </si>
+  <si>
+    <t>{"label" : "Alfred Kärcher GmbH and Co. KG", "value" :  31},</t>
+  </si>
+  <si>
+    <t>{"label" : "Algeria. Ministry of Defense", "value" :  32},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ali Group", "value" :  33},</t>
+  </si>
+  <si>
+    <t>{"label" : "Allied Electronics Corporation Ltd (Altron)", "value" :  34},</t>
+  </si>
+  <si>
+    <t>{"label" : "Allison Transmission Holdings", "value" :  35},</t>
+  </si>
+  <si>
+    <t>{"label" : "Allseas", "value" :  36},</t>
+  </si>
+  <si>
+    <t>{"label" : "Almaz-Antey", "value" :  37},</t>
+  </si>
+  <si>
+    <t>{"label" : "Alps Electric", "value" :  38},</t>
+  </si>
+  <si>
+    <t>{"label" : "Alstom", "value" :  39},</t>
+  </si>
+  <si>
+    <t>{"label" : "Altera", "value" :  40},</t>
+  </si>
+  <si>
+    <t>{"label" : "Altor Equity Partners", "value" :  41},</t>
+  </si>
+  <si>
+    <t>{"label" : "American Axle &amp; Manufacturing", "value" :  42},</t>
+  </si>
+  <si>
+    <t>{"label" : "American Securities Capital Partners", "value" :  43},</t>
+  </si>
+  <si>
+    <t>{"label" : "American Tire Distributors", "value" :  44},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ametek", "value" :  45},</t>
+  </si>
+  <si>
+    <t>{"label" : "Amkor Technology, Inc.", "value" :  46},</t>
+  </si>
+  <si>
+    <t>{"label" : "Amphenol", "value" :  47},</t>
+  </si>
+  <si>
+    <t>{"label" : "Amtek", "value" :  48},</t>
+  </si>
+  <si>
+    <t>{"label" : "Analog Devices", "value" :  49},</t>
+  </si>
+  <si>
+    <t>{"label" : "Andritz", "value" :  50},</t>
+  </si>
+  <si>
+    <t>{"label" : "Anixter International", "value" :  51},</t>
+  </si>
+  <si>
+    <t>{"label" : "APAX Partners", "value" :  52},</t>
+  </si>
+  <si>
+    <t>{"label" : "Applied Materials", "value" :  53},</t>
+  </si>
+  <si>
+    <t>{"label" : "Arctic Cat Inc", "value" :  54},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ares Management", "value" :  55},</t>
+  </si>
+  <si>
+    <t>{"label" : "Areva", "value" :  56},</t>
+  </si>
+  <si>
+    <t>{"label" : "Argentina. Ministry of Defense", "value" :  57},</t>
+  </si>
+  <si>
+    <t>{"label" : "Arianespace", "value" :  58},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ariens Company", "value" :  59},</t>
+  </si>
+  <si>
+    <t>{"label" : "Arlington Capital Group LLC", "value" :  60},</t>
+  </si>
+  <si>
+    <t>{"label" : "ARM Holdings", "value" :  61},</t>
+  </si>
+  <si>
+    <t>{"label" : "Arrow Electronics", "value" :  62},</t>
+  </si>
+  <si>
+    <t>{"label" : "Asahi Glass", "value" :  63},</t>
+  </si>
+  <si>
+    <t>{"label" : "ASIMCO", "value" :  64},</t>
+  </si>
+  <si>
+    <t>{"label" : "ASML Holding", "value" :  65},</t>
+  </si>
+  <si>
+    <t>{"label" : "Assa Abloy", "value" :  66},</t>
+  </si>
+  <si>
+    <t>{"label" : "Astra International", "value" :  67},</t>
+  </si>
+  <si>
+    <t>{"label" : "Atlas Copco", "value" :  68},</t>
+  </si>
+  <si>
+    <t>{"label" : "Atmel", "value" :  69},</t>
+  </si>
+  <si>
+    <t>{"label" : "ATMI", "value" :  70},</t>
+  </si>
+  <si>
+    <t>{"label" : "AU Optronics", "value" :  71},</t>
+  </si>
+  <si>
+    <t>{"label" : "Aurora Capital Group", "value" :  72},</t>
+  </si>
+  <si>
+    <t>{"label" : "Australia. Department of Defence", "value" :  73},</t>
+  </si>
+  <si>
+    <t>{"label" : "Autoliv", "value" :  74},</t>
+  </si>
+  <si>
+    <t>{"label" : "Automotive Holding Group Limited", "value" :  75},</t>
+  </si>
+  <si>
+    <t>{"label" : "AutoNation", "value" :  76},</t>
+  </si>
+  <si>
+    <t>{"label" : "Autoneum Holding AG", "value" :  77},</t>
+  </si>
+  <si>
+    <t>{"label" : "AUX Group", "value" :  78},</t>
+  </si>
+  <si>
+    <t>{"label" : "Avago Technologies", "value" :  79},</t>
+  </si>
+  <si>
+    <t>{"label" : "AVIC (Aviation Industries of China)", "value" :  80},</t>
+  </si>
+  <si>
+    <t>{"label" : "Avnet", "value" :  81},</t>
+  </si>
+  <si>
+    <t>{"label" : "Avtotor-Kholding Grupp OAO", "value" :  82},</t>
+  </si>
+  <si>
+    <t>{"label" : "AWE Management Limited", "value" :  83},</t>
+  </si>
+  <si>
+    <t>{"label" : "AXA Group", "value" :  84},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ayala Corporation", "value" :  85},</t>
+  </si>
+  <si>
+    <t>{"label" : "Azimut Benetti Group", "value" :  86},</t>
+  </si>
+  <si>
+    <t>{"label" : "B&amp;C Privatstiftung", "value" :  87},</t>
+  </si>
+  <si>
+    <t>{"label" : "Babcock International Group plc", "value" :  88},</t>
+  </si>
+  <si>
+    <t>{"label" : "BAe Systems", "value" :  89},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bain Capital", "value" :  90},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bain Consort./Bombardier Recreational Products", "value" :  91},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ball", "value" :  92},</t>
+  </si>
+  <si>
+    <t>{"label" : "Baoxin Group", "value" :  93},</t>
+  </si>
+  <si>
+    <t>{"label" : "Barnes Group", "value" :  94},</t>
+  </si>
+  <si>
+    <t>{"label" : "Barry-Wehmiller Companies", "value" :  95},</t>
+  </si>
+  <si>
+    <t>{"label" : "BASF", "value" :  96},</t>
+  </si>
+  <si>
+    <t>{"label" : "Battelle Memorial Institute", "value" :  97},</t>
+  </si>
+  <si>
+    <t>{"label" : "Battistella", "value" :  98},</t>
+  </si>
+  <si>
+    <t>{"label" : "BBA Aviation plc", "value" :  99},</t>
+  </si>
+  <si>
+    <t>{"label" : "BE Aerospace", "value" :  100},</t>
+  </si>
+  <si>
+    <t>{"label" : "Becton, Dickinson", "value" :  101},</t>
+  </si>
+  <si>
+    <t>{"label" : "Beechcraft (fka Hawker-Beechcraft)", "value" :  102},</t>
+  </si>
+  <si>
+    <t>{"label" : "Beijing Jingcheng Machinery Electric Holding Co. Ltd", "value" :  103},</t>
+  </si>
+  <si>
+    <t>{"label" : "BeijingAutomotive Industry HoldingCo., Ltd.", "value" :  104},</t>
+  </si>
+  <si>
+    <t>{"label" : "Beiqi Foton", "value" :  105},</t>
+  </si>
+  <si>
+    <t>{"label" : "Belden, Inc.", "value" :  106},</t>
+  </si>
+  <si>
+    <t>{"label" : "Belgium. Flemish Regional Government", "value" :  107},</t>
+  </si>
+  <si>
+    <t>{"label" : "Belgium. Ministry of Defense", "value" :  108},</t>
+  </si>
+  <si>
+    <t>{"label" : "Benchmark Electronics", "value" :  109},</t>
+  </si>
+  <si>
+    <t>{"label" : "Benteler AG", "value" :  110},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bharat Electronics Limited", "value" :  111},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bharat Heavy Electricals", "value" :  112},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bilfinger &amp; Berger", "value" :  113},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bio-Rad Lab", "value" :  114},</t>
+  </si>
+  <si>
+    <t>{"label" : "Blackstone", "value" :  115},</t>
+  </si>
+  <si>
+    <t>{"label" : "BMW Group", "value" :  116},</t>
+  </si>
+  <si>
+    <t>{"label" : "Boeing", "value" :  117},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bombardier", "value" :  118},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bonfiglioli", "value" :  119},</t>
+  </si>
+  <si>
+    <t>{"label" : "Borgers AG", "value" :  120},</t>
+  </si>
+  <si>
+    <t>{"label" : "BorgWarner", "value" :  121},</t>
+  </si>
+  <si>
+    <t>{"label" : "Borusan Holding", "value" :  122},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bosch Siemens Hausgeräte", "value" :  123},</t>
+  </si>
+  <si>
+    <t>{"label" : "Boston Scientific", "value" :  124},</t>
+  </si>
+  <si>
+    <t>{"label" : "Brady Corporation", "value" :  125},</t>
+  </si>
+  <si>
+    <t>{"label" : "Brazil Trading Ltda.", "value" :  126},</t>
+  </si>
+  <si>
+    <t>{"label" : "Brazil. Ministry of Defense", "value" :  127},</t>
+  </si>
+  <si>
+    <t>{"label" : "Brembo", "value" :  128},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bridgepoint", "value" :  129},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bridgestone", "value" :  130},</t>
+  </si>
+  <si>
+    <t>{"label" : "Briggs &amp; Stratton", "value" :  131},</t>
+  </si>
+  <si>
+    <t>{"label" : "Brightpoint, Inc.", "value" :  132},</t>
+  </si>
+  <si>
+    <t>{"label" : "Brilliance China Automotive Holdings", "value" :  133},</t>
+  </si>
+  <si>
+    <t>{"label" : "Brink"s", "value" :  134},</t>
+  </si>
+  <si>
+    <t>{"label" : "Broadcom", "value" :  135},</t>
+  </si>
+  <si>
+    <t>{"label" : "Brose Fahrzeugteile", "value" :  136},</t>
+  </si>
+  <si>
+    <t>{"label" : "Brother Industries", "value" :  137},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bruker Corporation", "value" :  138},</t>
+  </si>
+  <si>
+    <t>{"label" : "Brunswick", "value" :  139},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bucher Industries", "value" :  140},</t>
+  </si>
+  <si>
+    <t>{"label" : "Bühler Holding AG", "value" :  141},</t>
+  </si>
+  <si>
+    <t>{"label" : "Business Leaders for Michigan", "value" :  142},</t>
+  </si>
+  <si>
+    <t>{"label" : "BYD", "value" :  143},</t>
+  </si>
+  <si>
+    <t>{"label" : "CACI International", "value" :  144},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cadence", "value" :  145},</t>
+  </si>
+  <si>
+    <t>{"label" : "CAE", "value" :  146},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cal-Comp Electronics (Thailand) Public", "value" :  147},</t>
+  </si>
+  <si>
+    <t>{"label" : "California High Speed Rail", "value" :  148},</t>
+  </si>
+  <si>
+    <t>{"label" : "Calsonic Kansei", "value" :  149},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cameron International", "value" :  150},</t>
+  </si>
+  <si>
+    <t>{"label" : "Camfil Ab", "value" :  151},</t>
+  </si>
+  <si>
+    <t>{"label" : "Camoplast Solideal Inc", "value" :  152},</t>
+  </si>
+  <si>
+    <t>{"label" : "Canada Pension Plan", "value" :  153},</t>
+  </si>
+  <si>
+    <t>{"label" : "Canada. Department of Defence", "value" :  154},</t>
+  </si>
+  <si>
+    <t>{"label" : "Canon", "value" :  155},</t>
+  </si>
+  <si>
+    <t>{"label" : "Caoa Montadora De Veículos S/A.", "value" :  156},</t>
+  </si>
+  <si>
+    <t>{"label" : "CapVis Equity Partners", "value" :  157},</t>
+  </si>
+  <si>
+    <t>{"label" : "Carl Zeiss", "value" :  158},</t>
+  </si>
+  <si>
+    <t>{"label" : "Carlisle Companies", "value" :  159},</t>
+  </si>
+  <si>
+    <t>{"label" : "CarMax", "value" :  160},</t>
+  </si>
+  <si>
+    <t>{"label" : "Carraro Group", "value" :  161},</t>
+  </si>
+  <si>
+    <t>{"label" : "Caterpillar", "value" :  162},</t>
+  </si>
+  <si>
+    <t>{"label" : "CCRE Group", "value" :  163},</t>
+  </si>
+  <si>
+    <t>{"label" : "Celestica, Inc.", "value" :  164},</t>
+  </si>
+  <si>
+    <t>{"label" : "Center for the Advancement of Science in Space", "value" :  165},</t>
+  </si>
+  <si>
+    <t>{"label" : "Centrotherm Photovoltaics AG", "value" :  166},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cerberus Capital Management LP", "value" :  167},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cerberus/Dyncorp International", "value" :  168},</t>
+  </si>
+  <si>
+    <t>{"label" : "Chang An", "value" :  169},</t>
+  </si>
+  <si>
+    <t>{"label" : "Charlesbank Capital Partners Llc", "value" :  170},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cheng Shin Rubber Industries", "value" :  171},</t>
+  </si>
+  <si>
+    <t>{"label" : "Chery Automobile", "value" :  172},</t>
+  </si>
+  <si>
+    <t>{"label" : "China Aerospace Science and Industry Corporation", "value" :  173},</t>
+  </si>
+  <si>
+    <t>{"label" : "China CNR", "value" :  174},</t>
+  </si>
+  <si>
+    <t>{"label" : "China Coal Technology and Engineering Group Corp", "value" :  175},</t>
+  </si>
+  <si>
+    <t>{"label" : "China CSSC Holdings", "value" :  176},</t>
+  </si>
+  <si>
+    <t>{"label" : "China Electronics", "value" :  177},</t>
+  </si>
+  <si>
+    <t>{"label" : "China FAW Group", "value" :  178},</t>
+  </si>
+  <si>
+    <t>{"label" : "China Grand Auto", "value" :  179},</t>
+  </si>
+  <si>
+    <t>{"label" : "China Hi-Tech Group Corporation (CHTC)", "value" :  180},</t>
+  </si>
+  <si>
+    <t>{"label" : "China International Marine", "value" :  181},</t>
+  </si>
+  <si>
+    <t>{"label" : "China National Materials", "value" :  182},</t>
+  </si>
+  <si>
+    <t>{"label" : "China New Century Holding Group", "value" :  183},</t>
+  </si>
+  <si>
+    <t>{"label" : "China North Industries", "value" :  184},</t>
+  </si>
+  <si>
+    <t>{"label" : "China South Industries", "value" :  185},</t>
+  </si>
+  <si>
+    <t>{"label" : "China Zhengtong Auto Services Holdings", "value" :  186},</t>
+  </si>
+  <si>
+    <t>{"label" : "China Hengtian GroupCo. Ltd", "value" :  187},</t>
+  </si>
+  <si>
+    <t>{"label" : "China. Peoples Republic of", "value" :  188},</t>
+  </si>
+  <si>
+    <t>{"label" : "Chint Group Co. Ltd", "value" :  189},</t>
+  </si>
+  <si>
+    <t>{"label" : "Chongqing Skyman", "value" :  190},</t>
+  </si>
+  <si>
+    <t>{"label" : "Chun Feng Group", "value" :  191},</t>
+  </si>
+  <si>
+    <t>{"label" : "CIE Automotive SA", "value" :  192},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cinven", "value" :  193},</t>
+  </si>
+  <si>
+    <t>{"label" : "Citizen Watch", "value" :  194},</t>
+  </si>
+  <si>
+    <t>{"label" : "CK Birla Group", "value" :  195},</t>
+  </si>
+  <si>
+    <t>{"label" : "CLAAS KGaA mbH", "value" :  196},</t>
+  </si>
+  <si>
+    <t>{"label" : "Clarcor", "value" :  197},</t>
+  </si>
+  <si>
+    <t>{"label" : "CNH Industrial", "value" :  198},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cobham", "value" :  199},</t>
+  </si>
+  <si>
+    <t>{"label" : "Coesia", "value" :  200},</t>
+  </si>
+  <si>
+    <t>{"label" : "Colfax Corporation", "value" :  201},</t>
+  </si>
+  <si>
+    <t>{"label" : "Colombia. Defense", "value" :  202},</t>
+  </si>
+  <si>
+    <t>{"label" : "Colony Capital", "value" :  203},</t>
+  </si>
+  <si>
+    <t>{"label" : "Commercial Vehicle Group Inc. (CVG)", "value" :  204},</t>
+  </si>
+  <si>
+    <t>{"label" : "Comoli-Bianchi Group", "value" :  205},</t>
+  </si>
+  <si>
+    <t>{"label" : "Compagnie Plastic Omnium SA", "value" :  206},</t>
+  </si>
+  <si>
+    <t>{"label" : "Compal Electronics", "value" :  207},</t>
+  </si>
+  <si>
+    <t>{"label" : "Conexant Systems", "value" :  208},</t>
+  </si>
+  <si>
+    <t>{"label" : "Consórcio Estaleiro Paraguaçú", "value" :  209},</t>
+  </si>
+  <si>
+    <t>{"label" : "Construcciones y Auxiliar de Ferrocarril (CAF)", "value" :  210},</t>
+  </si>
+  <si>
+    <t>{"label" : "Continental AG", "value" :  211},</t>
+  </si>
+  <si>
+    <t>{"label" : "Controladora Mabe, S.A. de C.V.", "value" :  212},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cooper Tire &amp; Rubber", "value" :  213},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cooper-Standard Automotive", "value" :  214},</t>
+  </si>
+  <si>
+    <t>{"label" : "Coretronic", "value" :  215},</t>
+  </si>
+  <si>
+    <t>{"label" : "Corning", "value" :  216},</t>
+  </si>
+  <si>
+    <t>{"label" : "Corporación Gestamp", "value" :  217},</t>
+  </si>
+  <si>
+    <t>{"label" : "COSCO", "value" :  218},</t>
+  </si>
+  <si>
+    <t>{"label" : "Crane Co", "value" :  219},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cree, Inc.", "value" :  220},</t>
+  </si>
+  <si>
+    <t>{"label" : "Crown Equipment", "value" :  221},</t>
+  </si>
+  <si>
+    <t>{"label" : "CSR Corporation Limited", "value" :  222},</t>
+  </si>
+  <si>
+    <t>{"label" : "CSR plc", "value" :  223},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cubic Corp", "value" :  224},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cummins", "value" :  225},</t>
+  </si>
+  <si>
+    <t>{"label" : "Curtiss-Wright Corporation", "value" :  226},</t>
+  </si>
+  <si>
+    <t>{"label" : "Cypress Semiconductor", "value" :  227},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dabbagh Group (incl. Stars Foundation)", "value" :  228},</t>
+  </si>
+  <si>
+    <t>{"label" : "Daewoo Ship &amp; Marine", "value" :  229},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dah Chong Hong", "value" :  230},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dai Nippon Printing", "value" :  231},</t>
+  </si>
+  <si>
+    <t>{"label" : "Daido Steel", "value" :  232},</t>
+  </si>
+  <si>
+    <t>{"label" : "Daikin Industries", "value" :  233},</t>
+  </si>
+  <si>
+    <t>{"label" : "Daimler", "value" :  234},</t>
+  </si>
+  <si>
+    <t>{"label" : "Daiwabo Holdings", "value" :  235},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dana", "value" :  236},</t>
+  </si>
+  <si>
+    <t>{"label" : "Danaher", "value" :  237},</t>
+  </si>
+  <si>
+    <t>{"label" : "Danfoss", "value" :  238},</t>
+  </si>
+  <si>
+    <t>{"label" : "Danieli and C. Officine Meccaniche S.p.A.", "value" :  239},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dassault Group", "value" :  240},</t>
+  </si>
+  <si>
+    <t>{"label" : "DCNS S.A.", "value" :  241},</t>
+  </si>
+  <si>
+    <t>{"label" : "De" Longhi S.p.A.", "value" :  242},</t>
+  </si>
+  <si>
+    <t>{"label" : "Deere &amp; Co", "value" :  243},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dekra", "value" :  244},</t>
+  </si>
+  <si>
+    <t>{"label" : "Delixi Group Co. Ltd", "value" :  245},</t>
+  </si>
+  <si>
+    <t>{"label" : "Delphi", "value" :  246},</t>
+  </si>
+  <si>
+    <t>{"label" : "Delta Electronics", "value" :  247},</t>
+  </si>
+  <si>
+    <t>{"label" : "Denmark. Ministry of Defense", "value" :  248},</t>
+  </si>
+  <si>
+    <t>{"label" : "Denso", "value" :  249},</t>
+  </si>
+  <si>
+    <t>{"label" : "Derco Sa", "value" :  250},</t>
+  </si>
+  <si>
+    <t>{"label" : "Deutz AG", "value" :  251},</t>
+  </si>
+  <si>
+    <t>{"label" : "Deutz/Fahr (SAME Deutz-Fahr)", "value" :  252},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dialog Semiconductor", "value" :  253},</t>
+  </si>
+  <si>
+    <t>{"label" : "Diebold", "value" :  254},</t>
+  </si>
+  <si>
+    <t>{"label" : "Diehl", "value" :  255},</t>
+  </si>
+  <si>
+    <t>{"label" : "DIeteren SA", "value" :  256},</t>
+  </si>
+  <si>
+    <t>{"label" : "DMG Mori Seiki", "value" :  257},</t>
+  </si>
+  <si>
+    <t>{"label" : "Docol", "value" :  258},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dogus Holding (incl. Dogus Media)", "value" :  259},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dometic", "value" :  260},</t>
+  </si>
+  <si>
+    <t>{"label" : "Donaldson Company, Inc.", "value" :  261},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dongfang Electric", "value" :  262},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dongfeng Motor Group", "value" :  263},</t>
+  </si>
+  <si>
+    <t>{"label" : "Doosan", "value" :  264},</t>
+  </si>
+  <si>
+    <t>{"label" : "Doosan Heavy Industry", "value" :  265},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dover", "value" :  266},</t>
+  </si>
+  <si>
+    <t>{"label" : "DPaschoal", "value" :  267},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dramd Participações E Administração Ltda", "value" :  268},</t>
+  </si>
+  <si>
+    <t>{"label" : "DRB / Syed Mokhtar", "value" :  269},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dream LuxCo/Securitas", "value" :  270},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dresser-Rand Group", "value" :  271},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dura Automotive Systems", "value" :  272},</t>
+  </si>
+  <si>
+    <t>{"label" : "Dürr Aktiengesellschaft", "value" :  273},</t>
+  </si>
+  <si>
+    <t>{"label" : "East Penn Manufacturing Company, Inc.", "value" :  274},</t>
+  </si>
+  <si>
+    <t>{"label" : "Eastman Kodak", "value" :  275},</t>
+  </si>
+  <si>
+    <t>{"label" : "Eaton", "value" :  276},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ebara", "value" :  277},</t>
+  </si>
+  <si>
+    <t>{"label" : "ebm-papst", "value" :  278},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ecolab (incl. Nalco)", "value" :  279},</t>
+  </si>
+  <si>
+    <t>{"label" : "El Sewedy Electric", "value" :  280},</t>
+  </si>
+  <si>
+    <t>{"label" : "Elbit", "value" :  281},</t>
+  </si>
+  <si>
+    <t>{"label" : "Electrical Components International, Inc.", "value" :  282},</t>
+  </si>
+  <si>
+    <t>{"label" : "Electrolux Group", "value" :  283},</t>
+  </si>
+  <si>
+    <t>{"label" : "Elliott Management Corporation", "value" :  284},</t>
+  </si>
+  <si>
+    <t>{"label" : "Elmos Semiconductor", "value" :  285},</t>
+  </si>
+  <si>
+    <t>{"label" : "Elpida Memory", "value" :  286},</t>
+  </si>
+  <si>
+    <t>{"label" : "Elringklinger", "value" :  287},</t>
+  </si>
+  <si>
+    <t>{"label" : "Embraer", "value" :  288},</t>
+  </si>
+  <si>
+    <t>{"label" : "Emcor", "value" :  289},</t>
+  </si>
+  <si>
+    <t>{"label" : "Emerson Electric", "value" :  290},</t>
+  </si>
+  <si>
+    <t>{"label" : "Emil Frey", "value" :  291},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ence", "value" :  292},</t>
+  </si>
+  <si>
+    <t>{"label" : "EnerSys, Inc.", "value" :  293},</t>
+  </si>
+  <si>
+    <t>{"label" : "Engility Holdings, Inc.", "value" :  294},</t>
+  </si>
+  <si>
+    <t>{"label" : "EnPro Industries", "value" :  295},</t>
+  </si>
+  <si>
+    <t>{"label" : "Entegris", "value" :  296},</t>
+  </si>
+  <si>
+    <t>{"label" : "Envision Energy (Jiangyin) Co. Ltd.", "value" :  297},</t>
+  </si>
+  <si>
+    <t>{"label" : "EPISTAR Corporation", "value" :  298},</t>
+  </si>
+  <si>
+    <t>{"label" : "Equifax", "value" :  299},</t>
+  </si>
+  <si>
+    <t>{"label" : "ESCO Technologies Inc.", "value" :  300},</t>
+  </si>
+  <si>
+    <t>{"label" : "Escorts Ltd.", "value" :  301},</t>
+  </si>
+  <si>
+    <t>{"label" : "Esterline Technologies Corp.", "value" :  302},</t>
+  </si>
+  <si>
+    <t>{"label" : "Eurofighter Jagdflugzeug Gmbh", "value" :  303},</t>
+  </si>
+  <si>
+    <t>{"label" : "EUROJET Turbo GmbH", "value" :  304},</t>
+  </si>
+  <si>
+    <t>{"label" : "Exelis", "value" :  305},</t>
+  </si>
+  <si>
+    <t>{"label" : "Exide", "value" :  306},</t>
+  </si>
+  <si>
+    <t>{"label" : "Exostar Llc", "value" :  307},</t>
+  </si>
+  <si>
+    <t>{"label" : "Fahrzeug-Werke LUEG AG", "value" :  308},</t>
+  </si>
+  <si>
+    <t>{"label" : "Fairchild Semiconductor International", "value" :  309},</t>
+  </si>
+  <si>
+    <t>{"label" : "Fanuc", "value" :  310},</t>
+  </si>
+  <si>
+    <t>{"label" : "Faurecia", "value" :  311},</t>
+  </si>
+  <si>
+    <t>{"label" : "FCC Co Ltd", "value" :  312},</t>
+  </si>
+  <si>
+    <t>{"label" : "Federal-Mogul", "value" :  313},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ferretti Group", "value" :  314},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ferreycorp Sociedad Anónima Abierta", "value" :  315},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ferrostaal GmbH", "value" :  316},</t>
+  </si>
+  <si>
+    <t>{"label" : "Festo Maschinenfabrik", "value" :  317},</t>
+  </si>
+  <si>
+    <t>{"label" : "Fiat Group (incl. Chrysler)", "value" :  318},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ficosa", "value" :  319},</t>
+  </si>
+  <si>
+    <t>{"label" : "Fincantieri", "value" :  320},</t>
+  </si>
+  <si>
+    <t>{"label" : "Finland. Ministry of Defense", "value" :  321},</t>
+  </si>
+  <si>
+    <t>{"label" : "Finmeccanica", "value" :  322},</t>
+  </si>
+  <si>
+    <t>{"label" : "Firestone Holdings LLC", "value" :  323},</t>
+  </si>
+  <si>
+    <t>{"label" : "First Solar, Inc.", "value" :  324},</t>
+  </si>
+  <si>
+    <t>{"label" : "FleetPride, Inc.", "value" :  325},</t>
+  </si>
+  <si>
+    <t>{"label" : "Flex-n-gate", "value" :  326},</t>
+  </si>
+  <si>
+    <t>{"label" : "Flextronics Intl", "value" :  327},</t>
+  </si>
+  <si>
+    <t>{"label" : "FLIR Systems", "value" :  328},</t>
+  </si>
+  <si>
+    <t>{"label" : "Flowserve", "value" :  329},</t>
+  </si>
+  <si>
+    <t>{"label" : "FLSmidth and Co. A/S", "value" :  330},</t>
+  </si>
+  <si>
+    <t>{"label" : "Fluor", "value" :  331},</t>
+  </si>
+  <si>
+    <t>{"label" : "FMC Technologies", "value" :  332},</t>
+  </si>
+  <si>
+    <t>{"label" : "Fokker Technologies Group B.V.", "value" :  333},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ford Motor", "value" :  334},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ford Sollers", "value" :  335},</t>
+  </si>
+  <si>
+    <t>{"label" : "Forjas Taurus S.A.", "value" :  336},</t>
+  </si>
+  <si>
+    <t>{"label" : "Foshan Midea Carrier", "value" :  337},</t>
+  </si>
+  <si>
+    <t>{"label" : "FountainVest", "value" :  338},</t>
+  </si>
+  <si>
+    <t>{"label" : "France. Defense", "value" :  339},</t>
+  </si>
+  <si>
+    <t>{"label" : "Franke Holding", "value" :  340},</t>
+  </si>
+  <si>
+    <t>{"label" : "Freescale Semiconductor", "value" :  341},</t>
+  </si>
+  <si>
+    <t>{"label" : "Fresenius", "value" :  342},</t>
+  </si>
+  <si>
+    <t>{"label" : "Freudenberg", "value" :  343},</t>
+  </si>
+  <si>
+    <t>{"label" : "Friedhelm Loh Stiftung and Co. KG", "value" :  344},</t>
+  </si>
+  <si>
+    <t>{"label" : "Friedrich Boysen Holding GmbH", "value" :  345},</t>
+  </si>
+  <si>
+    <t>{"label" : "Fuji Electric Holdings", "value" :  346},</t>
+  </si>
+  <si>
+    <t>{"label" : "Fuji Heavy Inds", "value" :  347},</t>
+  </si>
+  <si>
+    <t>{"label" : "Fujikura", "value" :  348},</t>
+  </si>
+  <si>
+    <t>{"label" : "Fujitsu", "value" :  349},</t>
+  </si>
+  <si>
+    <t>{"label" : "Funai Electric", "value" :  350},</t>
+  </si>
+  <si>
+    <t>{"label" : "Furukawa Electric", "value" :  351},</t>
+  </si>
+  <si>
+    <t>{"label" : "Futaba Industrial", "value" :  352},</t>
+  </si>
+  <si>
+    <t>{"label" : "Fuyo General Lease", "value" :  353},</t>
+  </si>
+  <si>
+    <t>{"label" : "Galanz Group", "value" :  354},</t>
+  </si>
+  <si>
+    <t>{"label" : "Gamesa", "value" :  355},</t>
+  </si>
+  <si>
+    <t>{"label" : "Gardner Denver", "value" :  356},</t>
+  </si>
+  <si>
+    <t>{"label" : "GAZ Group", "value" :  357},</t>
+  </si>
+  <si>
+    <t>{"label" : "GD Midea Holding", "value" :  358},</t>
+  </si>
+  <si>
+    <t>{"label" : "GEA Group", "value" :  359},</t>
+  </si>
+  <si>
+    <t>{"label" : "Geberit", "value" :  360},</t>
+  </si>
+  <si>
+    <t>{"label" : "Geely (incl. Volvo Car)", "value" :  361},</t>
+  </si>
+  <si>
+    <t>{"label" : "GenCorp", "value" :  362},</t>
+  </si>
+  <si>
+    <t>{"label" : "General Atomics", "value" :  363},</t>
+  </si>
+  <si>
+    <t>{"label" : "General Cable Corporation", "value" :  364},</t>
+  </si>
+  <si>
+    <t>{"label" : "General Dynamics", "value" :  365},</t>
+  </si>
+  <si>
+    <t>{"label" : "General Electric", "value" :  366},</t>
+  </si>
+  <si>
+    <t>{"label" : "General Motors", "value" :  367},</t>
+  </si>
+  <si>
+    <t>{"label" : "Genuine Parts", "value" :  368},</t>
+  </si>
+  <si>
+    <t>{"label" : "Georg Fischer", "value" :  369},</t>
+  </si>
+  <si>
+    <t>{"label" : "Germany. Ministry Of Defense", "value" :  370},</t>
+  </si>
+  <si>
+    <t>{"label" : "GETRAG Getriebe- und Zahnradfabrik Hermann Hagenmeyer GmbH and Cie KG", "value" :  371},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ghabbour Auto", "value" :  372},</t>
+  </si>
+  <si>
+    <t>{"label" : "GICAN", "value" :  373},</t>
+  </si>
+  <si>
+    <t>{"label" : "Giovanni Agnelli (incl. EXOR)", "value" :  374},</t>
+  </si>
+  <si>
+    <t>{"label" : "GKN", "value" :  375},</t>
+  </si>
+  <si>
+    <t>{"label" : "Goldberg Lindsay &amp; Co. Llc", "value" :  376},</t>
+  </si>
+  <si>
+    <t>{"label" : "Goldman Sachs Group", "value" :  377},</t>
+  </si>
+  <si>
+    <t>{"label" : "Goodyear", "value" :  378},</t>
+  </si>
+  <si>
+    <t>{"label" : "GrafTech International Ltd", "value" :  379},</t>
+  </si>
+  <si>
+    <t>{"label" : "Grauer &amp; Weil", "value" :  380},</t>
+  </si>
+  <si>
+    <t>{"label" : "Graybar Electric", "value" :  381},</t>
+  </si>
+  <si>
+    <t>{"label" : "Great Wall Motor", "value" :  382},</t>
+  </si>
+  <si>
+    <t>{"label" : "Great Wall Technology", "value" :  383},</t>
+  </si>
+  <si>
+    <t>{"label" : "Gree Electric Appliances", "value" :  384},</t>
+  </si>
+  <si>
+    <t>{"label" : "Group 1 Automotive", "value" :  385},</t>
+  </si>
+  <si>
+    <t>{"label" : "Group Industrial Alfa", "value" :  386},</t>
+  </si>
+  <si>
+    <t>{"label" : "Grundfos", "value" :  387},</t>
+  </si>
+  <si>
+    <t>{"label" : "Grupo Antolin", "value" :  388},</t>
+  </si>
+  <si>
+    <t>{"label" : "Grupo Berge", "value" :  389},</t>
+  </si>
+  <si>
+    <t>{"label" : "Grupo IUSA, S.A. de C.V.", "value" :  390},</t>
+  </si>
+  <si>
+    <t>{"label" : "Grupo Kuo, S.A.B. de C.V.", "value" :  391},</t>
+  </si>
+  <si>
+    <t>{"label" : "GS Yuasa", "value" :  392},</t>
+  </si>
+  <si>
+    <t>{"label" : "Guangxi Construction Engineering GroupCo., Ltd.", "value" :  393},</t>
+  </si>
+  <si>
+    <t>{"label" : "Guangxi Liugong Machinery", "value" :  394},</t>
+  </si>
+  <si>
+    <t>{"label" : "Guangxi Yuchai Machinery Group Co.Ltd", "value" :  395},</t>
+  </si>
+  <si>
+    <t>{"label" : "Guangzhou Automobile", "value" :  396},</t>
+  </si>
+  <si>
+    <t>{"label" : "GUANGZHOU RAILWAY", "value" :  397},</t>
+  </si>
+  <si>
+    <t>{"label" : "GuangzhouWanbao GroupCo. Ltd", "value" :  398},</t>
+  </si>
+  <si>
+    <t>{"label" : "Gulf States Toyota", "value" :  399},</t>
+  </si>
+  <si>
+    <t>{"label" : "GV Holding", "value" :  400},</t>
+  </si>
+  <si>
+    <t>{"label" : "Haas-Meincke Holding A/S", "value" :  401},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hahn &amp; Company Korea Limited", "value" :  402},</t>
+  </si>
+  <si>
+    <t>{"label" : "Haier Group", "value" :  403},</t>
+  </si>
+  <si>
+    <t>{"label" : "Halla Visteon Climate Control (HVCC)", "value" :  404},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hangzhou Rubber Group Company", "value" :  405},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hanil E-hwa", "value" :  406},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hankook Tire", "value" :  407},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hanwha (excl Life &amp; Chemicals)", "value" :  408},</t>
+  </si>
+  <si>
+    <t>{"label" : "Harbour Group", "value" :  409},</t>
+  </si>
+  <si>
+    <t>{"label" : "Harley-Davidson", "value" :  410},</t>
+  </si>
+  <si>
+    <t>{"label" : "Harman International", "value" :  411},</t>
+  </si>
+  <si>
+    <t>{"label" : "Harris", "value" :  412},</t>
+  </si>
+  <si>
+    <t>{"label" : "Harsco Corporation", "value" :  413},</t>
+  </si>
+  <si>
+    <t>{"label" : "Havells India Limited", "value" :  414},</t>
+  </si>
+  <si>
+    <t>{"label" : "HAWE Hydraulik SE", "value" :  415},</t>
+  </si>
+  <si>
+    <t>{"label" : "HD Supply", "value" :  416},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hebei Construction Group Co., LTd.", "value" :  417},</t>
+  </si>
+  <si>
+    <t>{"label" : "Heidelberg Druckmaschinen", "value" :  418},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hella KG &amp; Hueck", "value" :  419},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hengtong Group Co. Ltd", "value" :  420},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hero MotoCorp", "value" :  421},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hexagon", "value" :  422},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hexcel Corporation", "value" :  423},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hilti", "value" :  424},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hinduja Group", "value" :  425},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hindustan Aeronautics Ltd.", "value" :  426},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hisense Electric", "value" :  427},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hitachi", "value" :  428},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hixih Rubber Industry GroupCo. Ltd", "value" :  429},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hon Hai Precision Ind (dba Foxconn)", "value" :  430},</t>
+  </si>
+  <si>
+    <t>{"label" : "Honda Motor", "value" :  431},</t>
+  </si>
+  <si>
+    <t>{"label" : "Honeywell International", "value" :  432},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hoshiden", "value" :  433},</t>
+  </si>
+  <si>
+    <t>{"label" : "HOYA", "value" :  434},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hubbell, Inc.", "value" :  435},</t>
+  </si>
+  <si>
+    <t>{"label" : "Huntington Ingalls Industries Inc.", "value" :  436},</t>
+  </si>
+  <si>
+    <t>{"label" : "Husky Injection Molding", "value" :  437},</t>
+  </si>
+  <si>
+    <t>{"label" : "Husqvarna Vapenfabriks Ab", "value" :  438},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hyosung", "value" :  439},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hyster-Yale Materials Handling, Inc.", "value" :  440},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hyundai Heavy Industries", "value" :  441},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hyundai Mipo Dockyard Co., Ltd.", "value" :  442},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hyundai Mobis", "value" :  443},</t>
+  </si>
+  <si>
+    <t>{"label" : "Hyundai Motor", "value" :  444},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ibf - Indústria Brasileira De Filmes S/A", "value" :  445},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ibiden", "value" :  446},</t>
+  </si>
+  <si>
+    <t>{"label" : "IDEX Corporation", "value" :  447},</t>
+  </si>
+  <si>
+    <t>{"label" : "IHI", "value" :  448},</t>
+  </si>
+  <si>
+    <t>{"label" : "Illinois Tool Works", "value" :  449},</t>
+  </si>
+  <si>
+    <t>{"label" : "IMA S.p.A.", "value" :  450},</t>
+  </si>
+  <si>
+    <t>{"label" : "Imabari Shipbuilding Co.,Ltd.", "value" :  451},</t>
+  </si>
+  <si>
+    <t>{"label" : "IMEC", "value" :  452},</t>
+  </si>
+  <si>
+    <t>{"label" : "Impala SAS", "value" :  453},</t>
+  </si>
+  <si>
+    <t>{"label" : "Inchcape", "value" :  454},</t>
+  </si>
+  <si>
+    <t>{"label" : "Indesit", "value" :  455},</t>
+  </si>
+  <si>
+    <t>{"label" : "India. Ministry of Defense", "value" :  456},</t>
+  </si>
+  <si>
+    <t>{"label" : "Indra", "value" :  457},</t>
+  </si>
+  <si>
+    <t>{"label" : "Infineon Technologies", "value" :  458},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ingersoll-Rand", "value" :  459},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ingram Micro", "value" :  460},</t>
+  </si>
+  <si>
+    <t>{"label" : "Innovation Network Corporation of Japan", "value" :  461},</t>
+  </si>
+  <si>
+    <t>{"label" : "Insight Enterprises", "value" :  462},</t>
+  </si>
+  <si>
+    <t>{"label" : "Inspur Electronic Information Industry Co.,Ltd", "value" :  463},</t>
+  </si>
+  <si>
+    <t>{"label" : "Intel", "value" :  464},</t>
+  </si>
+  <si>
+    <t>{"label" : "International Automotive Components", "value" :  465},</t>
+  </si>
+  <si>
+    <t>{"label" : "International Rectifier Corporation", "value" :  466},</t>
+  </si>
+  <si>
+    <t>{"label" : "Interpump Group SpA", "value" :  467},</t>
+  </si>
+  <si>
+    <t>{"label" : "Invensys", "value" :  468},</t>
+  </si>
+  <si>
+    <t>{"label" : "Investor AB", "value" :  469},</t>
+  </si>
+  <si>
+    <t>{"label" : "Iochpe-Maxion S.A.", "value" :  470},</t>
+  </si>
+  <si>
+    <t>{"label" : "Israel Aerospace Industries", "value" :  471},</t>
+  </si>
+  <si>
+    <t>{"label" : "Israel Corp", "value" :  472},</t>
+  </si>
+  <si>
+    <t>{"label" : "Israel. Defense Forces", "value" :  473},</t>
+  </si>
+  <si>
+    <t>{"label" : "Isuzu Motors", "value" :  474},</t>
+  </si>
+  <si>
+    <t>{"label" : "Italy. Ministry of Defence", "value" :  475},</t>
+  </si>
+  <si>
+    <t>{"label" : "Itavema S/A", "value" :  476},</t>
+  </si>
+  <si>
+    <t>{"label" : "Itron", "value" :  477},</t>
+  </si>
+  <si>
+    <t>{"label" : "ITT", "value" :  478},</t>
+  </si>
+  <si>
+    <t>{"label" : "J Eberspächer", "value" :  479},</t>
+  </si>
+  <si>
+    <t>{"label" : "J. C. Bamford", "value" :  480},</t>
+  </si>
+  <si>
+    <t>{"label" : "Jabil Circuit", "value" :  481},</t>
+  </si>
+  <si>
+    <t>{"label" : "JAC Motors", "value" :  482},</t>
+  </si>
+  <si>
+    <t>{"label" : "JALUX Inc.", "value" :  483},</t>
+  </si>
+  <si>
+    <t>{"label" : "Japan Display", "value" :  484},</t>
+  </si>
+  <si>
+    <t>{"label" : "Japan. Government of", "value" :  485},</t>
+  </si>
+  <si>
+    <t>{"label" : "Japan. Ministry of Defense", "value" :  486},</t>
+  </si>
+  <si>
+    <t>{"label" : "JBS", "value" :  487},</t>
+  </si>
+  <si>
+    <t>{"label" : "Jebsen Group", "value" :  488},</t>
+  </si>
+  <si>
+    <t>{"label" : "Jenoptik", "value" :  489},</t>
+  </si>
+  <si>
+    <t>{"label" : "JFE Holdings", "value" :  490},</t>
+  </si>
+  <si>
+    <t>{"label" : "JFL Partners", "value" :  491},</t>
+  </si>
+  <si>
+    <t>{"label" : "Jim Pattison", "value" :  492},</t>
+  </si>
+  <si>
+    <t>{"label" : "Jinglong Industry and Commerce Group Co., Ltd.", "value" :  493},</t>
+  </si>
+  <si>
+    <t>{"label" : "JM Family Enterprises", "value" :  494},</t>
+  </si>
+  <si>
+    <t>{"label" : "Johnson Controls", "value" :  495},</t>
+  </si>
+  <si>
+    <t>{"label" : "Johnson Matthey", "value" :  496},</t>
+  </si>
+  <si>
+    <t>{"label" : "Joule Unlimited", "value" :  497},</t>
+  </si>
+  <si>
+    <t>{"label" : "Joy Global", "value" :  498},</t>
+  </si>
+  <si>
+    <t>{"label" : "JTEKT", "value" :  499},</t>
+  </si>
+  <si>
+    <t>{"label" : "Juffali", "value" :  500},</t>
+  </si>
+  <si>
+    <t>{"label" : "Jungheinrich", "value" :  501},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kaba Holding", "value" :  502},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kaman Corporation", "value" :  503},</t>
+  </si>
+  <si>
+    <t>{"label" : "KAMAZ OJSC", "value" :  504},</t>
+  </si>
+  <si>
+    <t>{"label" : "KATHREIN-Werke KG", "value" :  505},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kawasaki Heavy Inds", "value" :  506},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kayaba Industry", "value" :  507},</t>
+  </si>
+  <si>
+    <t>{"label" : "Keihin Corp", "value" :  508},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kemet Corporation", "value" :  509},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kennametal", "value" :  510},</t>
+  </si>
+  <si>
+    <t>{"label" : "Keppel", "value" :  511},</t>
+  </si>
+  <si>
+    <t>{"label" : "Khrunichev State Research and Production Space Center", "value" :  512},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kia Motors", "value" :  513},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kimball International", "value" :  514},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kingboard Chemical", "value" :  515},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kingston Technology", "value" :  516},</t>
+  </si>
+  <si>
+    <t>{"label" : "KION GROUP GmbH", "value" :  517},</t>
+  </si>
+  <si>
+    <t>{"label" : "KKR", "value" :  518},</t>
+  </si>
+  <si>
+    <t>{"label" : "KLA-Tencor", "value" :  519},</t>
+  </si>
+  <si>
+    <t>{"label" : "Knorr-Bremse Aktiengesellschaft", "value" :  520},</t>
+  </si>
+  <si>
+    <t>{"label" : "Koç (incl. Arcelik)", "value" :  521},</t>
+  </si>
+  <si>
+    <t>{"label" : "Koenig and Bauer AG", "value" :  522},</t>
+  </si>
+  <si>
+    <t>{"label" : "Koito Manufacturing", "value" :  523},</t>
+  </si>
+  <si>
+    <t>{"label" : "Komatsu", "value" :  524},</t>
+  </si>
+  <si>
+    <t>{"label" : "KONE", "value" :  525},</t>
+  </si>
+  <si>
+    <t>{"label" : "Konecranes Plc", "value" :  526},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kongsberg Gruppen ASA", "value" :  527},</t>
+  </si>
+  <si>
+    <t>{"label" : "Konica Minolta", "value" :  528},</t>
+  </si>
+  <si>
+    <t>{"label" : "Körber AG", "value" :  529},</t>
+  </si>
+  <si>
+    <t>{"label" : "Korea Aerospace Industries Ltd.", "value" :  530},</t>
+  </si>
+  <si>
+    <t>{"label" : "Krauss-Maffei Wegmann GmbH and Co. KG", "value" :  531},</t>
+  </si>
+  <si>
+    <t>{"label" : "Krones AG", "value" :  532},</t>
+  </si>
+  <si>
+    <t>{"label" : "KSB AG", "value" :  533},</t>
+  </si>
+  <si>
+    <t>{"label" : "KSJ Group", "value" :  534},</t>
+  </si>
+  <si>
+    <t>{"label" : "KTM Sportmotorcycle AG", "value" :  535},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kubota", "value" :  536},</t>
+  </si>
+  <si>
+    <t>{"label" : "KUKA Aktiengesellschaft (IWKA)", "value" :  537},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kulicke &amp; Soffa", "value" :  538},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kumho Tire Co., Inc.", "value" :  539},</t>
+  </si>
+  <si>
+    <t>{"label" : "Kyocera", "value" :  540},</t>
+  </si>
+  <si>
+    <t>{"label" : "L-3 Communications Holding", "value" :  541},</t>
+  </si>
+  <si>
+    <t>{"label" : "LabCorp", "value" :  542},</t>
+  </si>
+  <si>
+    <t>{"label" : "Lam Research", "value" :  543},</t>
+  </si>
+  <si>
+    <t>{"label" : "Landis+Gyr Holding AG", "value" :  544},</t>
+  </si>
+  <si>
+    <t>{"label" : "Lantiq", "value" :  545},</t>
+  </si>
+  <si>
+    <t>{"label" : "Larsen &amp; Toubro", "value" :  546},</t>
+  </si>
+  <si>
+    <t>{"label" : "Latecoere", "value" :  547},</t>
+  </si>
+  <si>
+    <t>{"label" : "Lear", "value" :  548},</t>
+  </si>
+  <si>
+    <t>{"label" : "Legend Holdings Limited", "value" :  549},</t>
+  </si>
+  <si>
+    <t>{"label" : "Legrand", "value" :  550},</t>
+  </si>
+  <si>
+    <t>{"label" : "Leidos", "value" :  551},</t>
+  </si>
+  <si>
+    <t>{"label" : "Lennox International", "value" :  552},</t>
+  </si>
+  <si>
+    <t>{"label" : "Lenze SE", "value" :  553},</t>
+  </si>
+  <si>
+    <t>{"label" : "LEONI AG", "value" :  554},</t>
+  </si>
+  <si>
+    <t>{"label" : "Lexmark", "value" :  555},</t>
+  </si>
+  <si>
+    <t>{"label" : "LG Chem", "value" :  556},</t>
+  </si>
+  <si>
+    <t>{"label" : "LG Corp", "value" :  557},</t>
+  </si>
+  <si>
+    <t>{"label" : "LG Electronics", "value" :  558},</t>
+  </si>
+  <si>
+    <t>{"label" : "LG Innotek.", "value" :  559},</t>
+  </si>
+  <si>
+    <t>{"label" : "LG International", "value" :  560},</t>
+  </si>
+  <si>
+    <t>{"label" : "Liebherr", "value" :  561},</t>
+  </si>
+  <si>
+    <t>{"label" : "Linamar Corp.", "value" :  562},</t>
+  </si>
+  <si>
+    <t>{"label" : "Lincoln Electric", "value" :  563},</t>
+  </si>
+  <si>
+    <t>{"label" : "Linde Group", "value" :  564},</t>
+  </si>
+  <si>
+    <t>{"label" : "Linear Technology", "value" :  565},</t>
+  </si>
+  <si>
+    <t>{"label" : "Lisa Dräxlmaier GmbH", "value" :  566},</t>
+  </si>
+  <si>
+    <t>{"label" : "LIXIL Group Corp.", "value" :  567},</t>
+  </si>
+  <si>
+    <t>{"label" : "LKQ Corporation", "value" :  568},</t>
+  </si>
+  <si>
+    <t>{"label" : "Lockheed Martin", "value" :  569},</t>
+  </si>
+  <si>
+    <t>{"label" : "Loral Space &amp; Communications", "value" :  570},</t>
+  </si>
+  <si>
+    <t>{"label" : "LS Corp", "value" :  571},</t>
+  </si>
+  <si>
+    <t>{"label" : "LSH", "value" :  572},</t>
+  </si>
+  <si>
+    <t>{"label" : "M+W Group", "value" :  573},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ma Laboratories", "value" :  574},</t>
+  </si>
+  <si>
+    <t>{"label" : "MAGNA International", "value" :  575},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mahindra &amp; Mahindra", "value" :  576},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mahle-Behr", "value" :  577},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mainfirst Holding Ag", "value" :  578},</t>
+  </si>
+  <si>
+    <t>{"label" : "Makita", "value" :  579},</t>
+  </si>
+  <si>
+    <t>{"label" : "MAN", "value" :  580},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mando", "value" :  581},</t>
+  </si>
+  <si>
+    <t>{"label" : "Manitowoc", "value" :  582},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mann+Hummel", "value" :  583},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mansour Group", "value" :  584},</t>
+  </si>
+  <si>
+    <t>{"label" : "ManTech International", "value" :  585},</t>
+  </si>
+  <si>
+    <t>{"label" : "Marcopolo S.A.", "value" :  586},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mark IV LLC", "value" :  587},</t>
+  </si>
+  <si>
+    <t>{"label" : "Marshall of Cambridge (Holdings) Limited", "value" :  588},</t>
+  </si>
+  <si>
+    <t>{"label" : "Marvell Technology Group", "value" :  589},</t>
+  </si>
+  <si>
+    <t>{"label" : "Masco", "value" :  590},</t>
+  </si>
+  <si>
+    <t>{"label" : "Maxim Integrated Products", "value" :  591},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mazda Motor", "value" :  592},</t>
+  </si>
+  <si>
+    <t>{"label" : "MBK Partners", "value" :  593},</t>
+  </si>
+  <si>
+    <t>{"label" : "McDermott International", "value" :  594},</t>
+  </si>
+  <si>
+    <t>{"label" : "MediaTek", "value" :  595},</t>
+  </si>
+  <si>
+    <t>{"label" : "Medtronic", "value" :  596},</t>
+  </si>
+  <si>
+    <t>{"label" : "Meggitt plc", "value" :  597},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mentor Graphics", "value" :  598},</t>
+  </si>
+  <si>
+    <t>{"label" : "Meritor", "value" :  599},</t>
+  </si>
+  <si>
+    <t>{"label" : "Metalsa S. de R.L.", "value" :  600},</t>
+  </si>
+  <si>
+    <t>{"label" : "Metso", "value" :  601},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mettler-Toledo International", "value" :  602},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mexico. Secretariat of Defense", "value" :  603},</t>
+  </si>
+  <si>
+    <t>{"label" : "Meyer Burger AG", "value" :  604},</t>
+  </si>
+  <si>
+    <t>{"label" : "MI.MO.SE.SPA", "value" :  605},</t>
+  </si>
+  <si>
+    <t>{"label" : "Michelin Group", "value" :  606},</t>
+  </si>
+  <si>
+    <t>{"label" : "Microchip Technology", "value" :  607},</t>
+  </si>
+  <si>
+    <t>{"label" : "Micron Technology", "value" :  608},</t>
+  </si>
+  <si>
+    <t>{"label" : "Micronas Holding GmbH", "value" :  609},</t>
+  </si>
+  <si>
+    <t>{"label" : "Miele and Cie. KG", "value" :  610},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mikron", "value" :  611},</t>
+  </si>
+  <si>
+    <t>{"label" : "Miller Electric", "value" :  612},</t>
+  </si>
+  <si>
+    <t>{"label" : "Minebea", "value" :  613},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mitsubishi Electric", "value" :  614},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mitsubishi Heavy Inds", "value" :  615},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mitsubishi Motors", "value" :  616},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mitsui Engineering &amp; Ship", "value" :  617},</t>
+  </si>
+  <si>
+    <t>{"label" : "Modine Manufacturing", "value" :  618},</t>
+  </si>
+  <si>
+    <t>{"label" : "Molex Incorporated", "value" :  619},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mondragon", "value" :  620},</t>
+  </si>
+  <si>
+    <t>{"label" : "Monument Capital Group", "value" :  621},</t>
+  </si>
+  <si>
+    <t>{"label" : "Moog, Inc.", "value" :  622},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mosaid Technologies Incorporated", "value" :  623},</t>
+  </si>
+  <si>
+    <t>{"label" : "MRC Global Inc.", "value" :  624},</t>
+  </si>
+  <si>
+    <t>{"label" : "MRF Ltd", "value" :  625},</t>
+  </si>
+  <si>
+    <t>{"label" : "MSC Industrial Direct", "value" :  626},</t>
+  </si>
+  <si>
+    <t>{"label" : "MTS Systems Corporation", "value" :  627},</t>
+  </si>
+  <si>
+    <t>{"label" : "MTU Euro Engines", "value" :  628},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mubadala Corporation", "value" :  629},</t>
+  </si>
+  <si>
+    <t>{"label" : "Mueller Water Products", "value" :  630},</t>
+  </si>
+  <si>
+    <t>{"label" : "Multivac", "value" :  631},</t>
+  </si>
+  <si>
+    <t>{"label" : "Murata Manufacturing", "value" :  632},</t>
+  </si>
+  <si>
+    <t>{"label" : "MV Agusta", "value" :  633},</t>
+  </si>
+  <si>
+    <t>{"label" : "NAC", "value" :  634},</t>
+  </si>
+  <si>
+    <t>{"label" : "Nacco Industries, Inc.", "value" :  635},</t>
+  </si>
+  <si>
+    <t>{"label" : "Naghi Group", "value" :  636},</t>
+  </si>
+  <si>
+    <t>{"label" : "NASA", "value" :  637},</t>
+  </si>
+  <si>
+    <t>{"label" : "National Instruments", "value" :  638},</t>
+  </si>
+  <si>
+    <t>{"label" : "Navantia", "value" :  639},</t>
+  </si>
+  <si>
+    <t>{"label" : "Navistar Intl", "value" :  640},</t>
+  </si>
+  <si>
+    <t>{"label" : "NCR", "value" :  641},</t>
+  </si>
+  <si>
+    <t>{"label" : "NEC", "value" :  642},</t>
+  </si>
+  <si>
+    <t>{"label" : "Netherlands. Defense", "value" :  643},</t>
+  </si>
+  <si>
+    <t>{"label" : "NETS", "value" :  644},</t>
+  </si>
+  <si>
+    <t>{"label" : "Nexans", "value" :  645},</t>
+  </si>
+  <si>
+    <t>{"label" : "Nexter Systems (fmr GIAT Industries)", "value" :  646},</t>
+  </si>
+  <si>
+    <t>{"label" : "NGK Spark Plug", "value" :  647},</t>
+  </si>
+  <si>
+    <t>{"label" : "NHK Spring", "value" :  648},</t>
+  </si>
+  <si>
+    <t>{"label" : "Nichia Corporation", "value" :  649},</t>
+  </si>
+  <si>
+    <t>{"label" : "Nidec", "value" :  650},</t>
+  </si>
+  <si>
+    <t>{"label" : "Nikon", "value" :  651},</t>
+  </si>
+  <si>
+    <t>{"label" : "Nippon Electric Glass", "value" :  652},</t>
+  </si>
+  <si>
+    <t>{"label" : "Nissan Shatai Co., Ltd.", "value" :  653},</t>
+  </si>
+  <si>
+    <t>{"label" : "Nisshinbo Industries", "value" :  654},</t>
+  </si>
+  <si>
+    <t>{"label" : "NKT Holding A/S", "value" :  655},</t>
+  </si>
+  <si>
+    <t>{"label" : "Nordex SE", "value" :  656},</t>
+  </si>
+  <si>
+    <t>{"label" : "Nordson Corporation", "value" :  657},</t>
+  </si>
+  <si>
+    <t>{"label" : "Norma Group", "value" :  658},</t>
+  </si>
+  <si>
+    <t>{"label" : "Nortek, Inc.", "value" :  659},</t>
+  </si>
+  <si>
+    <t>{"label" : "North Atlantic Treaty Organization - NATO", "value" :  660},</t>
+  </si>
+  <si>
+    <t>{"label" : "Northrop Grumman", "value" :  661},</t>
+  </si>
+  <si>
+    <t>{"label" : "Norway. Ministry of Defense", "value" :  662},</t>
+  </si>
+  <si>
+    <t>{"label" : "Norwest Equity Partners", "value" :  663},</t>
+  </si>
+  <si>
+    <t>{"label" : "NOW GMBH", "value" :  664},</t>
+  </si>
+  <si>
+    <t>{"label" : "NSK", "value" :  665},</t>
+  </si>
+  <si>
+    <t>{"label" : "NTN", "value" :  666},</t>
+  </si>
+  <si>
+    <t>{"label" : "Nvidia", "value" :  667},</t>
+  </si>
+  <si>
+    <t>{"label" : "NXP Semiconductors", "value" :  668},</t>
+  </si>
+  <si>
+    <t>{"label" : "Oaktree Capital Management", "value" :  669},</t>
+  </si>
+  <si>
+    <t>{"label" : "Oerlikon Buhrle", "value" :  670},</t>
+  </si>
+  <si>
+    <t>{"label" : "OJSC Research and production corporation UralVagonZavod", "value" :  671},</t>
+  </si>
+  <si>
+    <t>{"label" : "Oki Electric Industry Company", "value" :  672},</t>
+  </si>
+  <si>
+    <t>{"label" : "Okuma", "value" :  673},</t>
+  </si>
+  <si>
+    <t>{"label" : "Omni United (S) Pte. Ltd.", "value" :  674},</t>
+  </si>
+  <si>
+    <t>{"label" : "Omron", "value" :  675},</t>
+  </si>
+  <si>
+    <t>{"label" : "OMZ Uralmash-Izhora Group OJSC", "value" :  676},</t>
+  </si>
+  <si>
+    <t>{"label" : "ON Semiconductor Corporation", "value" :  677},</t>
+  </si>
+  <si>
+    <t>{"label" : "Onex", "value" :  678},</t>
+  </si>
+  <si>
+    <t>{"label" : "Opple Lighting Co., Ltd.", "value" :  679},</t>
+  </si>
+  <si>
+    <t>{"label" : "Orbital ATK", "value" :  680},</t>
+  </si>
+  <si>
+    <t>{"label" : "Oshkosh Corporation", "value" :  681},</t>
+  </si>
+  <si>
+    <t>{"label" : "OSRAM Licht", "value" :  682},</t>
+  </si>
+  <si>
+    <t>{"label" : "Otsuka Corporation", "value" :  683},</t>
+  </si>
+  <si>
+    <t>{"label" : "Outerwall Inc", "value" :  684},</t>
+  </si>
+  <si>
+    <t>{"label" : "Outotec Oyj", "value" :  685},</t>
+  </si>
+  <si>
+    <t>{"label" : "Owens Corning", "value" :  686},</t>
+  </si>
+  <si>
+    <t>{"label" : "Oy Partek (Cargotec)", "value" :  687},</t>
+  </si>
+  <si>
+    <t>{"label" : "Paccar", "value" :  688},</t>
+  </si>
+  <si>
+    <t>{"label" : "Paladin Capital Group", "value" :  689},</t>
+  </si>
+  <si>
+    <t>{"label" : "Pall Corporation", "value" :  690},</t>
+  </si>
+  <si>
+    <t>{"label" : "Panasonic", "value" :  691},</t>
+  </si>
+  <si>
+    <t>{"label" : "Pang Da Automobile Trade", "value" :  692},</t>
+  </si>
+  <si>
+    <t>{"label" : "Parker-Hannifin", "value" :  693},</t>
+  </si>
+  <si>
+    <t>{"label" : "Pegatron", "value" :  694},</t>
+  </si>
+  <si>
+    <t>{"label" : "Penske Automotive", "value" :  695},</t>
+  </si>
+  <si>
+    <t>{"label" : "Pentair", "value" :  696},</t>
+  </si>
+  <si>
+    <t>{"label" : "PERI", "value" :  697},</t>
+  </si>
+  <si>
+    <t>{"label" : "PerkinElmer", "value" :  698},</t>
+  </si>
+  <si>
+    <t>{"label" : "Peru. Defense", "value" :  699},</t>
+  </si>
+  <si>
+    <t>{"label" : "Philips", "value" :  700},</t>
+  </si>
+  <si>
+    <t>{"label" : "Piaggio", "value" :  701},</t>
+  </si>
+  <si>
+    <t>{"label" : "Pioneer", "value" :  702},</t>
+  </si>
+  <si>
+    <t>{"label" : "Pirelli &amp; C", "value" :  703},</t>
+  </si>
+  <si>
+    <t>{"label" : "Pitney Bowes", "value" :  704},</t>
+  </si>
+  <si>
+    <t>{"label" : "Plastal", "value" :  705},</t>
+  </si>
+  <si>
+    <t>{"label" : "PLexus Corp", "value" :  706},</t>
+  </si>
+  <si>
+    <t>{"label" : "PMC-Sierra", "value" :  707},</t>
+  </si>
+  <si>
+    <t>{"label" : "Poland. Ministry of Defense", "value" :  708},</t>
+  </si>
+  <si>
+    <t>{"label" : "Polaris Industries", "value" :  709},</t>
+  </si>
+  <si>
+    <t>{"label" : "Pon Holdings B.V.", "value" :  710},</t>
+  </si>
+  <si>
+    <t>{"label" : "Portugal. Ministry of Defense", "value" :  711},</t>
+  </si>
+  <si>
+    <t>{"label" : "Positivo Informatica", "value" :  712},</t>
+  </si>
+  <si>
+    <t>{"label" : "Possehl", "value" :  713},</t>
+  </si>
+  <si>
+    <t>{"label" : "Power M", "value" :  714},</t>
+  </si>
+  <si>
+    <t>{"label" : "PPG Industries", "value" :  715},</t>
+  </si>
+  <si>
+    <t>{"label" : "PRAJ Industries Ltd", "value" :  716},</t>
+  </si>
+  <si>
+    <t>{"label" : "Praxair", "value" :  717},</t>
+  </si>
+  <si>
+    <t>{"label" : "Precision Castparts", "value" :  718},</t>
+  </si>
+  <si>
+    <t>{"label" : "Preh GmbH", "value" :  719},</t>
+  </si>
+  <si>
+    <t>{"label" : "Primax Electronics", "value" :  720},</t>
+  </si>
+  <si>
+    <t>{"label" : "Prosegur", "value" :  721},</t>
+  </si>
+  <si>
+    <t>{"label" : "Prysmian SpA", "value" :  722},</t>
+  </si>
+  <si>
+    <t>{"label" : "PSA Peugeot Citroen S.A.", "value" :  723},</t>
+  </si>
+  <si>
+    <t>{"label" : "PV Automotive GmbH", "value" :  724},</t>
+  </si>
+  <si>
+    <t>{"label" : "QinetiQ", "value" :  725},</t>
+  </si>
+  <si>
+    <t>{"label" : "Qoros", "value" :  726},</t>
+  </si>
+  <si>
+    <t>{"label" : "Qorvo", "value" :  727},</t>
+  </si>
+  <si>
+    <t>{"label" : "Qualcomm", "value" :  728},</t>
+  </si>
+  <si>
+    <t>{"label" : "Quanta Computer", "value" :  729},</t>
+  </si>
+  <si>
+    <t>{"label" : "Radici", "value" :  730},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rane Ltd", "value" :  731},</t>
+  </si>
+  <si>
+    <t>{"label" : "Raytheon", "value" :  732},</t>
+  </si>
+  <si>
+    <t>{"label" : "Red Eléctrica", "value" :  733},</t>
+  </si>
+  <si>
+    <t>{"label" : "Regal-Beloit Corp.", "value" :  734},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rejsekort A/S", "value" :  735},</t>
+  </si>
+  <si>
+    <t>{"label" : "Remy International", "value" :  736},</t>
+  </si>
+  <si>
+    <t>{"label" : "Renault Nissan", "value" :  737},</t>
+  </si>
+  <si>
+    <t>{"label" : "Renesas Electronics", "value" :  738},</t>
+  </si>
+  <si>
+    <t>{"label" : "Renold", "value" :  739},</t>
+  </si>
+  <si>
+    <t>{"label" : "REPH", "value" :  740},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rexam Healthcare Packaging Inc.", "value" :  741},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rexel", "value" :  742},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rexnord", "value" :  743},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rheinmetall", "value" :  744},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rieter", "value" :  745},</t>
+  </si>
+  <si>
+    <t>{"label" : "RMA Group", "value" :  746},</t>
+  </si>
+  <si>
+    <t>{"label" : "Robert Bosch", "value" :  747},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rockwell Automation", "value" :  748},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rockwell Collins", "value" :  749},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rockwool", "value" :  750},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rohm", "value" :  751},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rolls-Royce Group", "value" :  752},</t>
+  </si>
+  <si>
+    <t>{"label" : "Roper Industries", "value" :  753},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rosatom", "value" :  754},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rosoboronexport", "value" :  755},</t>
+  </si>
+  <si>
+    <t>{"label" : "Rostec", "value" :  756},</t>
+  </si>
+  <si>
+    <t>{"label" : "RPG Enterprises", "value" :  757},</t>
+  </si>
+  <si>
+    <t>{"label" : "RUAG", "value" :  758},</t>
+  </si>
+  <si>
+    <t>{"label" : "Russia. Defense", "value" :  759},</t>
+  </si>
+  <si>
+    <t>{"label" : "Saab AB", "value" :  760},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sacmi Group", "value" :  761},</t>
+  </si>
+  <si>
+    <t>{"label" : "SAFRAN", "value" :  762},</t>
+  </si>
+  <si>
+    <t>{"label" : "SAG Group GmbH", "value" :  763},</t>
+  </si>
+  <si>
+    <t>{"label" : "SAIC Motor", "value" :  764},</t>
+  </si>
+  <si>
+    <t>{"label" : "Saipem", "value" :  765},</t>
+  </si>
+  <si>
+    <t>{"label" : "Samsung Electro-Mech", "value" :  766},</t>
+  </si>
+  <si>
+    <t>{"label" : "Samsung Heavy Industries", "value" :  767},</t>
+  </si>
+  <si>
+    <t>{"label" : "Samsung SDI", "value" :  768},</t>
+  </si>
+  <si>
+    <t>{"label" : "Samsung Techwin", "value" :  769},</t>
+  </si>
+  <si>
+    <t>{"label" : "Samyang", "value" :  770},</t>
+  </si>
+  <si>
+    <t>{"label" : "SanDisk", "value" :  771},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sandvik", "value" :  772},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sanitec", "value" :  773},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sanmina-SCI", "value" :  774},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sany Heavy Industry", "value" :  775},</t>
+  </si>
+  <si>
+    <t>{"label" : "Saudi Arabia. Defense", "value" :  776},</t>
+  </si>
+  <si>
+    <t>{"label" : "Scania", "value" :  777},</t>
+  </si>
+  <si>
+    <t>{"label" : "ScanSource, Inc.", "value" :  778},</t>
+  </si>
+  <si>
+    <t>{"label" : "Schaeffler Group", "value" :  779},</t>
+  </si>
+  <si>
+    <t>{"label" : "Schindler Holding", "value" :  780},</t>
+  </si>
+  <si>
+    <t>{"label" : "Schmitz Cargobull", "value" :  781},</t>
+  </si>
+  <si>
+    <t>{"label" : "Schneider Electric", "value" :  782},</t>
+  </si>
+  <si>
+    <t>{"label" : "Schott AG", "value" :  783},</t>
+  </si>
+  <si>
+    <t>{"label" : "SCREEN", "value" :  784},</t>
+  </si>
+  <si>
+    <t>{"label" : "Seagate Technology", "value" :  785},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sealed Air", "value" :  786},</t>
+  </si>
+  <si>
+    <t>{"label" : "SEB SA", "value" :  787},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sequa Corp", "value" :  788},</t>
+  </si>
+  <si>
+    <t>{"label" : "Serco Group", "value" :  789},</t>
+  </si>
+  <si>
+    <t>{"label" : "Serviço Nacional De Aprendizagem Industrial - Senai", "value" :  790},</t>
+  </si>
+  <si>
+    <t>{"label" : "Severstal", "value" :  791},</t>
+  </si>
+  <si>
+    <t>{"label" : "SEW Eurodrive", "value" :  792},</t>
+  </si>
+  <si>
+    <t>{"label" : "Shaanxi Automobile Group Co. Ltd", "value" :  793},</t>
+  </si>
+  <si>
+    <t>{"label" : "Shandong Heavy Industry", "value" :  794},</t>
+  </si>
+  <si>
+    <t>{"label" : "Shandong Shifeng (Group) Co. Ltd", "value" :  795},</t>
+  </si>
+  <si>
+    <t>{"label" : "Shanghai Electric Group", "value" :  796},</t>
+  </si>
+  <si>
+    <t>{"label" : "Shenyang YuandaEnterprise Group Co.Ltd", "value" :  797},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sherwin-Williams", "value" :  798},</t>
+  </si>
+  <si>
+    <t>{"label" : "Shimadzu Corp.", "value" :  799},</t>
+  </si>
+  <si>
+    <t>{"label" : "Shimano", "value" :  800},</t>
+  </si>
+  <si>
+    <t>{"label" : "Shin-Etsu Chemical", "value" :  801},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sichuan Changhong Electric", "value" :  802},</t>
+  </si>
+  <si>
+    <t>{"label" : "Siemens", "value" :  803},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sierra Nevada Corporation", "value" :  804},</t>
+  </si>
+  <si>
+    <t>{"label" : "Singapore Technologies", "value" :  805},</t>
+  </si>
+  <si>
+    <t>{"label" : "Singapore. Defense", "value" :  806},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sinomach", "value" :  807},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sinotruk", "value" :  808},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sinquest Pte Ltd", "value" :  809},</t>
+  </si>
+  <si>
+    <t>{"label" : "SK Holdings Co., Ltd", "value" :  810},</t>
+  </si>
+  <si>
+    <t>{"label" : "SKF Group", "value" :  811},</t>
+  </si>
+  <si>
+    <t>{"label" : "Skyworks Solutions", "value" :  812},</t>
+  </si>
+  <si>
+    <t>{"label" : "Skyworth Digital", "value" :  813},</t>
+  </si>
+  <si>
+    <t>{"label" : "SMC", "value" :  814},</t>
+  </si>
+  <si>
+    <t>{"label" : "Smiths Group", "value" :  815},</t>
+  </si>
+  <si>
+    <t>{"label" : "SMS Group", "value" :  816},</t>
+  </si>
+  <si>
+    <t>{"label" : "Snap-on Incorporated", "value" :  817},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sogefi", "value" :  818},</t>
+  </si>
+  <si>
+    <t>{"label" : "Solaris Bus &amp; Coach S A", "value" :  819},</t>
+  </si>
+  <si>
+    <t>{"label" : "Solidium Oy", "value" :  820},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sollers", "value" :  821},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sonepar S.A.", "value" :  822},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sonic Automotive", "value" :  823},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sotreq", "value" :  824},</t>
+  </si>
+  <si>
+    <t>{"label" : "South Korea. Government of", "value" :  825},</t>
+  </si>
+  <si>
+    <t>{"label" : "South Korea. Ministry of National Defense", "value" :  826},</t>
+  </si>
+  <si>
+    <t>{"label" : "Space Exploration Technologies Corp.", "value" :  827},</t>
+  </si>
+  <si>
+    <t>{"label" : "Spain. Defense", "value" :  828},</t>
+  </si>
+  <si>
+    <t>{"label" : "Spansion Inc", "value" :  829},</t>
+  </si>
+  <si>
+    <t>{"label" : "Spirit AeroSystems Holdings Inc.", "value" :  830},</t>
+  </si>
+  <si>
+    <t>{"label" : "SPX", "value" :  831},</t>
+  </si>
+  <si>
+    <t>{"label" : "SR Technics Switzerland AG", "value" :  832},</t>
+  </si>
+  <si>
+    <t>{"label" : "St Jude Medical", "value" :  833},</t>
+  </si>
+  <si>
+    <t>{"label" : "Stadler Rail Group", "value" :  834},</t>
+  </si>
+  <si>
+    <t>{"label" : "Stanley Black &amp; Decker", "value" :  835},</t>
+  </si>
+  <si>
+    <t>{"label" : "Stanley Electric", "value" :  836},</t>
+  </si>
+  <si>
+    <t>{"label" : "Steelcase Inc.", "value" :  837},</t>
+  </si>
+  <si>
+    <t>{"label" : "Stihl Holding AG and Co. KG", "value" :  838},</t>
+  </si>
+  <si>
+    <t>{"label" : "STMicroElectronics", "value" :  839},</t>
+  </si>
+  <si>
+    <t>{"label" : "Stork B.V.", "value" :  840},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sulzer", "value" :  841},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sumco", "value" :  842},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sumitomo Electric", "value" :  843},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sumitomo Heavy Industries", "value" :  844},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sumitomo Rubber", "value" :  845},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sun Capital Partners", "value" :  846},</t>
+  </si>
+  <si>
+    <t>{"label" : "SunEdison", "value" :  847},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sungwoo Hitech", "value" :  848},</t>
+  </si>
+  <si>
+    <t>{"label" : "Suspensys", "value" :  849},</t>
+  </si>
+  <si>
+    <t>{"label" : "Suzlon Energy", "value" :  850},</t>
+  </si>
+  <si>
+    <t>{"label" : "Suzuki Motor", "value" :  851},</t>
+  </si>
+  <si>
+    <t>{"label" : "Svenska fordonkomponengruppen", "value" :  852},</t>
+  </si>
+  <si>
+    <t>{"label" : "Sweden. Defense", "value" :  853},</t>
+  </si>
+  <si>
+    <t>{"label" : "Switzerland. Eidgenossiches Militar / Departement", "value" :  854},</t>
+  </si>
+  <si>
+    <t>{"label" : "Synopsys", "value" :  855},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tactical Missiles Corporation JSC", "value" :  856},</t>
+  </si>
+  <si>
+    <t>{"label" : "Taiwan Semiconductor", "value" :  857},</t>
+  </si>
+  <si>
+    <t>{"label" : "Taiwan. Defense", "value" :  858},</t>
+  </si>
+  <si>
+    <t>{"label" : "Taiyo Yuden", "value" :  859},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tata (excl Motor, Steel &amp; Power)", "value" :  860},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tata Motors", "value" :  861},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tatung", "value" :  862},</t>
+  </si>
+  <si>
+    <t>{"label" : "TDK", "value" :  863},</t>
+  </si>
+  <si>
+    <t>{"label" : "TE Connectivity", "value" :  864},</t>
+  </si>
+  <si>
+    <t>{"label" : "Technip", "value" :  865},</t>
+  </si>
+  <si>
+    <t>{"label" : "Technogym", "value" :  866},</t>
+  </si>
+  <si>
+    <t>{"label" : "Technolatina", "value" :  867},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tecnicas Reunidas", "value" :  868},</t>
+  </si>
+  <si>
+    <t>{"label" : "Teledyne Technologies, Inc.", "value" :  869},</t>
+  </si>
+  <si>
+    <t>{"label" : "Teleflex, Inc.", "value" :  870},</t>
+  </si>
+  <si>
+    <t>{"label" : "Temasek Holding", "value" :  871},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tenneco", "value" :  872},</t>
+  </si>
+  <si>
+    <t>{"label" : "Teradyne", "value" :  873},</t>
+  </si>
+  <si>
+    <t>{"label" : "Terex Corporation", "value" :  874},</t>
+  </si>
+  <si>
+    <t>{"label" : "Terma", "value" :  875},</t>
+  </si>
+  <si>
+    <t>{"label" : "Terra Firma Capital Partners Ltd", "value" :  876},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tetra Laval", "value" :  877},</t>
+  </si>
+  <si>
+    <t>{"label" : "Texas Instruments", "value" :  878},</t>
+  </si>
+  <si>
+    <t>{"label" : "Textron", "value" :  879},</t>
+  </si>
+  <si>
+    <t>{"label" : "Thales", "value" :  880},</t>
+  </si>
+  <si>
+    <t>{"label" : "The Carlyle Group", "value" :  881},</t>
+  </si>
+  <si>
+    <t>{"label" : "The MITRE Corporation", "value" :  882},</t>
+  </si>
+  <si>
+    <t>{"label" : "The New Motion B.V", "value" :  883},</t>
+  </si>
+  <si>
+    <t>{"label" : "Thermax", "value" :  884},</t>
+  </si>
+  <si>
+    <t>{"label" : "Thermo Fisher", "value" :  885},</t>
+  </si>
+  <si>
+    <t>{"label" : "Thomas H Lee", "value" :  886},</t>
+  </si>
+  <si>
+    <t>{"label" : "Thor Industries", "value" :  887},</t>
+  </si>
+  <si>
+    <t>{"label" : "ThyssenKrupp Group", "value" :  888},</t>
+  </si>
+  <si>
+    <t>{"label" : "TianjinZhonghuan Electronics Information GroupCo.Ltd", "value" :  889},</t>
+  </si>
+  <si>
+    <t>{"label" : "Timken", "value" :  890},</t>
+  </si>
+  <si>
+    <t>{"label" : "TKJ Corporation", "value" :  891},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tokai Rika Co., Ltd.", "value" :  892},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tokai Rubber Industries", "value" :  893},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tokyo Electron", "value" :  894},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tomkins plc", "value" :  895},</t>
+  </si>
+  <si>
+    <t>{"label" : "TomTom", "value" :  896},</t>
+  </si>
+  <si>
+    <t>{"label" : "Toppan Printing", "value" :  897},</t>
+  </si>
+  <si>
+    <t>{"label" : "Toshiba", "value" :  898},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tower International", "value" :  899},</t>
+  </si>
+  <si>
+    <t>{"label" : "Toyo Tire &amp; Rubber", "value" :  900},</t>
+  </si>
+  <si>
+    <t>{"label" : "Toyoda Gosei Co., Ltd.", "value" :  901},</t>
+  </si>
+  <si>
+    <t>{"label" : "Toyota Boshoku", "value" :  902},</t>
+  </si>
+  <si>
+    <t>{"label" : "Toyota Industries", "value" :  903},</t>
+  </si>
+  <si>
+    <t>{"label" : "Toyota Motor", "value" :  904},</t>
+  </si>
+  <si>
+    <t>{"label" : "Toyota Tsusho", "value" :  905},</t>
+  </si>
+  <si>
+    <t>{"label" : "TPG Capital", "value" :  906},</t>
+  </si>
+  <si>
+    <t>{"label" : "TPV Technology", "value" :  907},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tramontina", "value" :  908},</t>
+  </si>
+  <si>
+    <t>{"label" : "Transmashholding ZAO", "value" :  909},</t>
+  </si>
+  <si>
+    <t>{"label" : "Trelleborg AB", "value" :  910},</t>
+  </si>
+  <si>
+    <t>{"label" : "Triad Semiconductor", "value" :  911},</t>
+  </si>
+  <si>
+    <t>{"label" : "Trimble Navigation Ltd", "value" :  912},</t>
+  </si>
+  <si>
+    <t>{"label" : "Trinity Industries", "value" :  913},</t>
+  </si>
+  <si>
+    <t>{"label" : "Triumph Group", "value" :  914},</t>
+  </si>
+  <si>
+    <t>{"label" : "Trost Auto Service Technik SE", "value" :  915},</t>
+  </si>
+  <si>
+    <t>{"label" : "Trumpf", "value" :  916},</t>
+  </si>
+  <si>
+    <t>{"label" : "TRW Automotive Hldgs", "value" :  917},</t>
+  </si>
+  <si>
+    <t>{"label" : "TS TECH Co., Ltd.", "value" :  918},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tsinghua Tongfang", "value" :  919},</t>
+  </si>
+  <si>
+    <t>{"label" : "TT Electronics", "value" :  920},</t>
+  </si>
+  <si>
+    <t>{"label" : "TTM Technologies", "value" :  921},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tupy S.A.", "value" :  922},</t>
+  </si>
+  <si>
+    <t>{"label" : "Turkey. Undersecretary of Defense", "value" :  923},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tüv Süd AG", "value" :  924},</t>
+  </si>
+  <si>
+    <t>{"label" : "TVS (incl. Sundram Fasteners)", "value" :  925},</t>
+  </si>
+  <si>
+    <t>{"label" : "Tyco International", "value" :  926},</t>
+  </si>
+  <si>
+    <t>{"label" : "UAE. Defense", "value" :  927},</t>
+  </si>
+  <si>
+    <t>{"label" : "UK. Ministry of Defence", "value" :  928},</t>
+  </si>
+  <si>
+    <t>{"label" : "UKC Holdings Corporation", "value" :  929},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ukraine. Government of", "value" :  930},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ultra Electronics Holdings plc", "value" :  931},</t>
+  </si>
+  <si>
+    <t>{"label" : "Ulvac", "value" :  932},</t>
+  </si>
+  <si>
+    <t>{"label" : "UMW Holdings Bhd", "value" :  933},</t>
+  </si>
+  <si>
+    <t>{"label" : "Underwriters Laboratories Inc.", "value" :  934},</t>
+  </si>
+  <si>
+    <t>{"label" : "United Aircraft Corp. JSC", "value" :  935},</t>
+  </si>
+  <si>
+    <t>{"label" : "United Launch Alliance", "value" :  936},</t>
+  </si>
+  <si>
+    <t>{"label" : "United MicroElectronics (UMC)", "value" :  937},</t>
+  </si>
+  <si>
+    <t>{"label" : "United Rentals", "value" :  938},</t>
+  </si>
+  <si>
+    <t>{"label" : "United Space Alliance", "value" :  939},</t>
+  </si>
+  <si>
+    <t>{"label" : "United Technologies", "value" :  940},</t>
+  </si>
+  <si>
+    <t>{"label" : "Upstream Capital Management", "value" :  941},</t>
+  </si>
+  <si>
+    <t>{"label" : "US. Department of Defense", "value" :  942},</t>
+  </si>
+  <si>
+    <t>{"label" : "Vaillant Group", "value" :  943},</t>
+  </si>
+  <si>
+    <t>{"label" : "Valeo", "value" :  944},</t>
+  </si>
+  <si>
+    <t>{"label" : "Valmet", "value" :  945},</t>
+  </si>
+  <si>
+    <t>{"label" : "Varian Medical Systems", "value" :  946},</t>
+  </si>
+  <si>
+    <t>{"label" : "Veeco", "value" :  947},</t>
+  </si>
+  <si>
+    <t>{"label" : "VeriFone Systems Inc", "value" :  948},</t>
+  </si>
+  <si>
+    <t>{"label" : "Veritas Capital Management", "value" :  949},</t>
+  </si>
+  <si>
+    <t>{"label" : "Vestas Wind Systems", "value" :  950},</t>
+  </si>
+  <si>
+    <t>{"label" : "Vestel Elektronik Sanayi Ve Ticaret AS", "value" :  951},</t>
+  </si>
+  <si>
+    <t>{"label" : "Videocon Industries Limited", "value" :  952},</t>
+  </si>
+  <si>
+    <t>{"label" : "Viessmann Werke GmbH and Co. KG", "value" :  953},</t>
+  </si>
+  <si>
+    <t>{"label" : "ViewSonic", "value" :  954},</t>
+  </si>
+  <si>
+    <t>{"label" : "Vishay Intertechnology", "value" :  955},</t>
+  </si>
+  <si>
+    <t>{"label" : "Visteon", "value" :  956},</t>
+  </si>
+  <si>
+    <t>{"label" : "VKR Holding A/S", "value" :  957},</t>
+  </si>
+  <si>
+    <t>{"label" : "Voith", "value" :  958},</t>
+  </si>
+  <si>
+    <t>{"label" : "Volkswagen Group (incl. Porsche)", "value" :  959},</t>
+  </si>
+  <si>
+    <t>{"label" : "Volvo Group", "value" :  960},</t>
+  </si>
+  <si>
+    <t>{"label" : "Vossloh AG", "value" :  961},</t>
+  </si>
+  <si>
+    <t>{"label" : "WABCO Holdings", "value" :  962},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wabtec", "value" :  963},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wacker Chemie", "value" :  964},</t>
+  </si>
+  <si>
+    <t>{"label" : "Walsin Lihwa Corporation", "value" :  965},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wanfeng Auto Holding Group", "value" :  966},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wanxiang Group", "value" :  967},</t>
+  </si>
+  <si>
+    <t>{"label" : "Warburg Pincus", "value" :  968},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wärtsilä", "value" :  969},</t>
+  </si>
+  <si>
+    <t>{"label" : "Waters", "value" :  970},</t>
+  </si>
+  <si>
+    <t>{"label" : "Watsco, Inc.", "value" :  971},</t>
+  </si>
+  <si>
+    <t>{"label" : "Watts Water Technologies, Inc.", "value" :  972},</t>
+  </si>
+  <si>
+    <t>{"label" : "Webasto", "value" :  973},</t>
+  </si>
+  <si>
+    <t>{"label" : "WEG", "value" :  974},</t>
+  </si>
+  <si>
+    <t>{"label" : "Weichai Power", "value" :  975},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wendel", "value" :  976},</t>
+  </si>
+  <si>
+    <t>{"label" : "Western Digital", "value" :  977},</t>
+  </si>
+  <si>
+    <t>{"label" : "Whirlpool", "value" :  978},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wilo SE", "value" :  979},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wincor Nixdorf", "value" :  980},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wirtgen Group", "value" :  981},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wistron", "value" :  982},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wlr Recovery Associates", "value" :  983},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wolong Holding Group Co., Ltd.", "value" :  984},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wolseley", "value" :  985},</t>
+  </si>
+  <si>
+    <t>{"label" : "Woodward, Inc.", "value" :  986},</t>
+  </si>
+  <si>
+    <t>{"label" : "WPG Holdings", "value" :  987},</t>
+  </si>
+  <si>
+    <t>{"label" : "Wulong Group", "value" :  988},</t>
+  </si>
+  <si>
+    <t>{"label" : "Würth Group", "value" :  989},</t>
+  </si>
+  <si>
+    <t>{"label" : "WW Grainger", "value" :  990},</t>
+  </si>
+  <si>
+    <t>{"label" : "XCMG Construction Machinery", "value" :  991},</t>
+  </si>
+  <si>
+    <t>{"label" : "Xilinx", "value" :  992},</t>
+  </si>
+  <si>
+    <t>{"label" : "Xylem, Inc.", "value" :  993},</t>
+  </si>
+  <si>
+    <t>{"label" : "Yamaha Motor", "value" :  994},</t>
+  </si>
+  <si>
+    <t>{"label" : "Yanmar Co., Ltd.", "value" :  995},</t>
+  </si>
+  <si>
+    <t>{"label" : "Yaskawa Electric", "value" :  996},</t>
+  </si>
+  <si>
+    <t>{"label" : "Yazaki Corporation", "value" :  997},</t>
+  </si>
+  <si>
+    <t>{"label" : "YKK Corporation", "value" :  998},</t>
+  </si>
+  <si>
+    <t>{"label" : "Yokogawa Electric", "value" :  999},</t>
+  </si>
+  <si>
+    <t>{"label" : "Yokohama Rubber", "value" :  1000},</t>
+  </si>
+  <si>
+    <t>{"label" : "Yongda Auto Group", "value" :  1001},</t>
+  </si>
+  <si>
+    <t>{"label" : "York Capital Management/Kaupthing Bank", "value" :  1002},</t>
+  </si>
+  <si>
+    <t>{"label" : "Zeppelin Stiftung", "value" :  1003},</t>
+  </si>
+  <si>
+    <t>{"label" : "Zhejiang Commercial Group Corporation", "value" :  1004},</t>
+  </si>
+  <si>
+    <t>{"label" : "Zhejiang Materials", "value" :  1005},</t>
+  </si>
+  <si>
+    <t>{"label" : "Zhengzhou Yutong Bus", "value" :  1006},</t>
+  </si>
+  <si>
+    <t>{"label" : "Zhongsheng Group Holdings Ltd", "value" :  1007},</t>
+  </si>
+  <si>
+    <t>{"label" : "Zilor de Almeida Santos", "value" :  1008},</t>
+  </si>
+  <si>
+    <t>{"label" : "Zodiac Aerospace SA", "value" :  1009},</t>
+  </si>
+  <si>
+    <t>{"label" : "Zoomlion Heavy Industry", "value" :  1010},</t>
+  </si>
+  <si>
+    <t>{"label" : "Zorlu Holding A.S.", "value" :  1011},</t>
+  </si>
+  <si>
+    <t>{"label" : "Zumtobel", "value" :  1012},</t>
   </si>
 </sst>
 </file>
@@ -18613,13 +18613,10 @@
   <dimension ref="A1:A1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="93.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
